--- a/data/social/S_1002.xlsx
+++ b/data/social/S_1002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B0483-EB39-EC4A-AFAF-E08D53C3BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789D3C0-076C-0544-8716-2D282C986BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,95 +1110,98 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>77.81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>60.01</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>781033223</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>21.21</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>6908</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.17666670000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1214,95 +1217,98 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>77.81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>60.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>781033223</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>9.91</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1628</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1318,95 +1324,98 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>77.81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>60.01</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>781033223</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>19.95</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.15964</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1422,98 +1431,101 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>77.81</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>60.01</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>781033223</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>22.47</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>88</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.17598</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>22.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -1581,19 +1593,19 @@
         <v>38</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>12.42</v>
+        <v>21.21</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1728</v>
+        <v>6908</v>
       </c>
       <c r="AB6">
         <v>12</v>
@@ -1605,16 +1617,16 @@
         <v>28</v>
       </c>
       <c r="AE6">
-        <v>0.15110000000000001</v>
+        <v>0.17666670000000001</v>
       </c>
       <c r="AF6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1685,43 +1697,43 @@
         <v>38</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>13.67</v>
+        <v>9.91</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1362</v>
+        <v>1917</v>
       </c>
       <c r="AB7">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s">
         <v>28</v>
       </c>
       <c r="AE7">
-        <v>0.17132</v>
+        <v>0.1628</v>
       </c>
       <c r="AF7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG7">
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI7">
-        <v>13.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -1789,19 +1801,19 @@
         <v>38</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>18.7</v>
+        <v>19.95</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>2445</v>
+        <v>1418</v>
       </c>
       <c r="AB8">
         <v>50</v>
@@ -1813,16 +1825,16 @@
         <v>28</v>
       </c>
       <c r="AE8">
-        <v>0.1472</v>
+        <v>0.15964</v>
       </c>
       <c r="AF8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1893,10 +1905,10 @@
         <v>38</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>12.42</v>
+        <v>22.47</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1905,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>3495</v>
+        <v>993</v>
       </c>
       <c r="AB9">
         <v>88</v>
@@ -1917,19 +1929,19 @@
         <v>28</v>
       </c>
       <c r="AE9">
-        <v>0.17781</v>
+        <v>0.17598</v>
       </c>
       <c r="AF9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG9">
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI9">
-        <v>12.42</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -1997,10 +2009,10 @@
         <v>38</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X10">
-        <v>14.93</v>
+        <v>12.42</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2009,31 +2021,31 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>1499</v>
+        <v>1728</v>
       </c>
       <c r="AB10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
         <v>28</v>
       </c>
       <c r="AE10">
-        <v>0.14610000000000001</v>
+        <v>0.15110000000000001</v>
       </c>
       <c r="AF10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG10">
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -2101,22 +2113,22 @@
         <v>38</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>17.440000000000001</v>
+        <v>13.67</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>2573</v>
+        <v>1362</v>
       </c>
       <c r="AB11">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
         <v>40</v>
@@ -2125,19 +2137,19 @@
         <v>28</v>
       </c>
       <c r="AE11">
-        <v>0.14499999999999999</v>
+        <v>0.17132</v>
       </c>
       <c r="AF11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG11">
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI11">
-        <v>7</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -2205,19 +2217,19 @@
         <v>38</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X12">
-        <v>27.49</v>
+        <v>18.7</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>1357</v>
+        <v>2445</v>
       </c>
       <c r="AB12">
         <v>50</v>
@@ -2229,16 +2241,16 @@
         <v>28</v>
       </c>
       <c r="AE12">
-        <v>0.16864999999999999</v>
+        <v>0.1472</v>
       </c>
       <c r="AF12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2309,22 +2321,22 @@
         <v>38</v>
       </c>
       <c r="W13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X13">
-        <v>16.190000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>1419</v>
+        <v>3495</v>
       </c>
       <c r="AB13">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s">
         <v>40</v>
@@ -2333,19 +2345,19 @@
         <v>28</v>
       </c>
       <c r="AE13">
-        <v>0.1622333</v>
+        <v>0.17781</v>
       </c>
       <c r="AF13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI13">
-        <v>7</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -2413,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="W14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>14.93</v>
@@ -2425,31 +2437,31 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>1061</v>
+        <v>1499</v>
       </c>
       <c r="AB14">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="s">
         <v>28</v>
       </c>
       <c r="AE14">
-        <v>0.15446670000000001</v>
+        <v>0.14610000000000001</v>
       </c>
       <c r="AF14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -2517,10 +2529,10 @@
         <v>38</v>
       </c>
       <c r="W15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X15">
-        <v>9.91</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2529,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>4213</v>
+        <v>2573</v>
       </c>
       <c r="AB15">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="s">
         <v>40</v>
@@ -2541,16 +2553,16 @@
         <v>28</v>
       </c>
       <c r="AE15">
-        <v>0.14166670000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AF15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI15">
         <v>7</v>
@@ -2621,10 +2633,10 @@
         <v>38</v>
       </c>
       <c r="W16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X16">
-        <v>21.21</v>
+        <v>27.49</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -2633,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>1424</v>
+        <v>1357</v>
       </c>
       <c r="AB16">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="s">
         <v>39</v>
@@ -2645,16 +2657,16 @@
         <v>28</v>
       </c>
       <c r="AE16">
-        <v>0.16814999999999999</v>
+        <v>0.16864999999999999</v>
       </c>
       <c r="AF16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2725,10 +2737,10 @@
         <v>38</v>
       </c>
       <c r="W17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X17">
-        <v>8.65</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2737,31 +2749,31 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>1348</v>
+        <v>1419</v>
       </c>
       <c r="AB17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s">
         <v>28</v>
       </c>
       <c r="AE17">
-        <v>0.14499999999999999</v>
+        <v>0.1622333</v>
       </c>
       <c r="AF17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2829,43 +2841,43 @@
         <v>38</v>
       </c>
       <c r="W18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X18">
-        <v>24.98</v>
+        <v>14.93</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>1565</v>
+        <v>1061</v>
       </c>
       <c r="AB18">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s">
         <v>28</v>
       </c>
       <c r="AE18">
-        <v>0.16780999999999999</v>
+        <v>0.15446670000000001</v>
       </c>
       <c r="AF18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI18">
-        <v>24.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2933,10 +2945,10 @@
         <v>38</v>
       </c>
       <c r="W19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X19">
-        <v>16.190000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2945,31 +2957,31 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>1030</v>
+        <v>4213</v>
       </c>
       <c r="AB19">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="s">
         <v>28</v>
       </c>
       <c r="AE19">
-        <v>0.15723329999999999</v>
+        <v>0.14166670000000001</v>
       </c>
       <c r="AF19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -3037,10 +3049,10 @@
         <v>38</v>
       </c>
       <c r="W20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X20">
-        <v>28.74</v>
+        <v>21.21</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -3049,31 +3061,31 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>1876</v>
+        <v>1424</v>
       </c>
       <c r="AB20">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s">
         <v>28</v>
       </c>
       <c r="AE20">
-        <v>0.17881</v>
+        <v>0.16814999999999999</v>
       </c>
       <c r="AF20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI20">
-        <v>28.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -3141,10 +3153,10 @@
         <v>38</v>
       </c>
       <c r="W21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X21">
-        <v>28.74</v>
+        <v>8.65</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3153,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>2765</v>
+        <v>1348</v>
       </c>
       <c r="AB21">
         <v>12</v>
@@ -3165,16 +3177,16 @@
         <v>28</v>
       </c>
       <c r="AE21">
-        <v>0.15053330000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AF21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3245,10 +3257,10 @@
         <v>38</v>
       </c>
       <c r="W22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X22">
-        <v>17.440000000000001</v>
+        <v>24.98</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -3257,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>1910</v>
+        <v>1565</v>
       </c>
       <c r="AB22">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC22" t="s">
         <v>40</v>
@@ -3269,19 +3281,19 @@
         <v>28</v>
       </c>
       <c r="AE22">
-        <v>0.17881</v>
+        <v>0.16780999999999999</v>
       </c>
       <c r="AF22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG22">
         <v>1</v>
       </c>
       <c r="AH22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI22">
-        <v>17.440000000000001</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -3349,10 +3361,10 @@
         <v>38</v>
       </c>
       <c r="W23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X23">
-        <v>27.49</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3361,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>1485</v>
+        <v>1030</v>
       </c>
       <c r="AB23">
         <v>12</v>
@@ -3373,16 +3385,16 @@
         <v>28</v>
       </c>
       <c r="AE23">
-        <v>0.15279999999999999</v>
+        <v>0.15723329999999999</v>
       </c>
       <c r="AF23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG23">
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -3453,43 +3465,43 @@
         <v>38</v>
       </c>
       <c r="W24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X24">
-        <v>22.47</v>
+        <v>28.74</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>1319</v>
+        <v>1876</v>
       </c>
       <c r="AB24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="s">
         <v>28</v>
       </c>
       <c r="AE24">
-        <v>0.15053330000000001</v>
+        <v>0.17881</v>
       </c>
       <c r="AF24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG24">
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -3557,43 +3569,43 @@
         <v>38</v>
       </c>
       <c r="W25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X25">
         <v>28.74</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>1594</v>
+        <v>2765</v>
       </c>
       <c r="AB25">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s">
         <v>28</v>
       </c>
       <c r="AE25">
-        <v>0.17630999999999999</v>
+        <v>0.15053330000000001</v>
       </c>
       <c r="AF25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG25">
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI25">
-        <v>28.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -3661,10 +3673,10 @@
         <v>38</v>
       </c>
       <c r="W26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X26">
-        <v>18.7</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -3673,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>1608</v>
+        <v>1910</v>
       </c>
       <c r="AB26">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="s">
         <v>40</v>
@@ -3685,19 +3697,19 @@
         <v>28</v>
       </c>
       <c r="AE26">
-        <v>0.17763999999999999</v>
+        <v>0.17881</v>
       </c>
       <c r="AF26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG26">
         <v>1</v>
       </c>
       <c r="AH26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI26">
-        <v>18.7</v>
+        <v>17.440000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
@@ -3765,10 +3777,10 @@
         <v>38</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X27">
-        <v>23.72</v>
+        <v>27.49</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3777,10 +3789,10 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>2856</v>
+        <v>1485</v>
       </c>
       <c r="AB27">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="s">
         <v>39</v>
@@ -3789,16 +3801,16 @@
         <v>28</v>
       </c>
       <c r="AE27">
-        <v>0.15333330000000001</v>
+        <v>0.15279999999999999</v>
       </c>
       <c r="AF27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG27">
         <v>1</v>
       </c>
       <c r="AH27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3869,43 +3881,43 @@
         <v>38</v>
       </c>
       <c r="W28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X28">
-        <v>17.440000000000001</v>
+        <v>22.47</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>1555</v>
+        <v>1319</v>
       </c>
       <c r="AB28">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s">
         <v>28</v>
       </c>
       <c r="AE28">
-        <v>0.18348</v>
+        <v>0.15053330000000001</v>
       </c>
       <c r="AF28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG28">
         <v>1</v>
       </c>
       <c r="AH28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI28">
-        <v>17.440000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -3973,43 +3985,43 @@
         <v>38</v>
       </c>
       <c r="W29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X29">
-        <v>26.23</v>
+        <v>28.74</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>1022</v>
+        <v>1594</v>
       </c>
       <c r="AB29">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD29" t="s">
         <v>28</v>
       </c>
       <c r="AE29">
-        <v>0.15609999999999999</v>
+        <v>0.17630999999999999</v>
       </c>
       <c r="AF29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG29">
         <v>1</v>
       </c>
       <c r="AH29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>28.74</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
@@ -4077,22 +4089,22 @@
         <v>38</v>
       </c>
       <c r="W30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X30">
-        <v>12.42</v>
+        <v>18.7</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
       <c r="AA30">
-        <v>2182</v>
+        <v>1608</v>
       </c>
       <c r="AB30">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
         <v>40</v>
@@ -4101,19 +4113,19 @@
         <v>28</v>
       </c>
       <c r="AE30">
-        <v>0.15390000000000001</v>
+        <v>0.17763999999999999</v>
       </c>
       <c r="AF30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG30">
         <v>1</v>
       </c>
       <c r="AH30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI30">
-        <v>7</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
@@ -4181,10 +4193,10 @@
         <v>38</v>
       </c>
       <c r="W31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X31">
-        <v>9.91</v>
+        <v>23.72</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -4193,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>1019</v>
+        <v>2856</v>
       </c>
       <c r="AB31">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC31" t="s">
         <v>39</v>
@@ -4205,16 +4217,16 @@
         <v>28</v>
       </c>
       <c r="AE31">
-        <v>0.1511333</v>
+        <v>0.15333330000000001</v>
       </c>
       <c r="AF31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG31">
         <v>1</v>
       </c>
       <c r="AH31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4285,43 +4297,43 @@
         <v>38</v>
       </c>
       <c r="W32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X32">
-        <v>21.21</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>1714</v>
+        <v>1555</v>
       </c>
       <c r="AB32">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="s">
         <v>28</v>
       </c>
       <c r="AE32">
-        <v>0.16</v>
+        <v>0.18348</v>
       </c>
       <c r="AF32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG32">
         <v>1</v>
       </c>
       <c r="AH32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>17.440000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
@@ -4389,43 +4401,43 @@
         <v>38</v>
       </c>
       <c r="W33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X33">
-        <v>23.72</v>
+        <v>26.23</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>1546</v>
+        <v>1022</v>
       </c>
       <c r="AB33">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s">
         <v>28</v>
       </c>
       <c r="AE33">
-        <v>0.17680999999999999</v>
+        <v>0.15609999999999999</v>
       </c>
       <c r="AF33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI33">
-        <v>23.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
@@ -4493,10 +4505,10 @@
         <v>38</v>
       </c>
       <c r="W34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="X34">
-        <v>22.47</v>
+        <v>12.42</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4505,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>1992</v>
+        <v>2182</v>
       </c>
       <c r="AB34">
         <v>50</v>
       </c>
       <c r="AC34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD34" t="s">
         <v>28</v>
@@ -4520,16 +4532,16 @@
         <v>0.15390000000000001</v>
       </c>
       <c r="AF34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AG34">
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
@@ -4597,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="W35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X35">
-        <v>8.65</v>
+        <v>9.91</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4609,31 +4621,31 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>2860</v>
+        <v>1019</v>
       </c>
       <c r="AB35">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s">
         <v>28</v>
       </c>
       <c r="AE35">
-        <v>0.16109999999999999</v>
+        <v>0.1511333</v>
       </c>
       <c r="AF35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG35">
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI35">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
@@ -4701,10 +4713,10 @@
         <v>38</v>
       </c>
       <c r="W36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X36">
-        <v>24.98</v>
+        <v>21.21</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4713,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>1389</v>
+        <v>1714</v>
       </c>
       <c r="AB36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC36" t="s">
         <v>39</v>
@@ -4725,16 +4737,16 @@
         <v>28</v>
       </c>
       <c r="AE36">
-        <v>0.1538667</v>
+        <v>0.16</v>
       </c>
       <c r="AF36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AG36">
         <v>1</v>
       </c>
       <c r="AH36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -4805,43 +4817,43 @@
         <v>38</v>
       </c>
       <c r="W37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X37">
-        <v>26.23</v>
+        <v>23.72</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>1274</v>
+        <v>1546</v>
       </c>
       <c r="AB37">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD37" t="s">
         <v>28</v>
       </c>
       <c r="AE37">
-        <v>0.15666669999999999</v>
+        <v>0.17680999999999999</v>
       </c>
       <c r="AF37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG37">
         <v>1</v>
       </c>
       <c r="AH37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -4909,43 +4921,43 @@
         <v>38</v>
       </c>
       <c r="W38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X38">
-        <v>26.23</v>
+        <v>22.47</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>1287</v>
+        <v>1992</v>
       </c>
       <c r="AB38">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD38" t="s">
         <v>28</v>
       </c>
       <c r="AE38">
-        <v>0.17297999999999999</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="AF38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AG38">
         <v>1</v>
       </c>
       <c r="AH38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AI38">
-        <v>26.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -5013,19 +5025,19 @@
         <v>38</v>
       </c>
       <c r="W39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X39">
-        <v>14.93</v>
+        <v>8.65</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>1319</v>
+        <v>2860</v>
       </c>
       <c r="AB39">
         <v>88</v>
@@ -5037,19 +5049,19 @@
         <v>28</v>
       </c>
       <c r="AE39">
-        <v>0.17998</v>
+        <v>0.16109999999999999</v>
       </c>
       <c r="AF39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG39">
         <v>1</v>
       </c>
       <c r="AH39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI39">
-        <v>14.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
@@ -5117,7 +5129,7 @@
         <v>38</v>
       </c>
       <c r="W40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="X40">
         <v>24.98</v>
@@ -5129,31 +5141,31 @@
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>1489</v>
+        <v>1389</v>
       </c>
       <c r="AB40">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD40" t="s">
         <v>28</v>
       </c>
       <c r="AE40">
-        <v>0.1555667</v>
+        <v>0.1538667</v>
       </c>
       <c r="AF40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AG40">
         <v>1</v>
       </c>
       <c r="AH40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AI40">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
@@ -5221,22 +5233,22 @@
         <v>38</v>
       </c>
       <c r="W41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X41">
-        <v>11.16</v>
+        <v>26.23</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>2095</v>
+        <v>1274</v>
       </c>
       <c r="AB41">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="s">
         <v>39</v>
@@ -5245,16 +5257,16 @@
         <v>28</v>
       </c>
       <c r="AE41">
-        <v>0.18581</v>
+        <v>0.15666669999999999</v>
       </c>
       <c r="AF41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG41">
         <v>1</v>
       </c>
       <c r="AH41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5325,43 +5337,43 @@
         <v>38</v>
       </c>
       <c r="W42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X42">
-        <v>19.95</v>
+        <v>26.23</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>1306</v>
+        <v>1287</v>
       </c>
       <c r="AB42">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="s">
         <v>28</v>
       </c>
       <c r="AE42">
-        <v>0.15390000000000001</v>
+        <v>0.17297999999999999</v>
       </c>
       <c r="AF42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG42">
         <v>1</v>
       </c>
       <c r="AH42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
@@ -5429,43 +5441,43 @@
         <v>38</v>
       </c>
       <c r="W43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X43">
-        <v>18.7</v>
+        <v>14.93</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>1291</v>
+        <v>1319</v>
       </c>
       <c r="AB43">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD43" t="s">
         <v>28</v>
       </c>
       <c r="AE43">
-        <v>0.1555667</v>
+        <v>0.17998</v>
       </c>
       <c r="AF43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG43">
         <v>1</v>
       </c>
       <c r="AH43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -5533,10 +5545,10 @@
         <v>38</v>
       </c>
       <c r="W44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="X44">
-        <v>8.65</v>
+        <v>24.98</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -5545,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>1121</v>
+        <v>1489</v>
       </c>
       <c r="AB44">
         <v>50</v>
@@ -5557,16 +5569,16 @@
         <v>28</v>
       </c>
       <c r="AE44">
-        <v>0.1616667</v>
+        <v>0.1555667</v>
       </c>
       <c r="AF44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AG44">
         <v>1</v>
       </c>
       <c r="AH44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AI44">
         <v>7</v>
@@ -5637,22 +5649,22 @@
         <v>38</v>
       </c>
       <c r="W45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X45">
-        <v>13.67</v>
+        <v>11.16</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>1</v>
       </c>
       <c r="AA45">
-        <v>1607</v>
+        <v>2095</v>
       </c>
       <c r="AB45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC45" t="s">
         <v>39</v>
@@ -5661,16 +5673,16 @@
         <v>28</v>
       </c>
       <c r="AE45">
-        <v>0.16113330000000001</v>
+        <v>0.18581</v>
       </c>
       <c r="AF45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG45">
         <v>1</v>
       </c>
       <c r="AH45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -5741,10 +5753,10 @@
         <v>38</v>
       </c>
       <c r="W46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X46">
-        <v>11.16</v>
+        <v>19.95</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -5753,31 +5765,31 @@
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>2362</v>
+        <v>1306</v>
       </c>
       <c r="AB46">
         <v>12</v>
       </c>
       <c r="AC46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD46" t="s">
         <v>28</v>
       </c>
       <c r="AE46">
-        <v>0.14946670000000001</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="AF46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG46">
         <v>1</v>
       </c>
       <c r="AH46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI46">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
@@ -5845,43 +5857,43 @@
         <v>38</v>
       </c>
       <c r="W47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X47">
-        <v>19.95</v>
+        <v>18.7</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>2245</v>
+        <v>1291</v>
       </c>
       <c r="AB47">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD47" t="s">
         <v>28</v>
       </c>
       <c r="AE47">
-        <v>0.17247999999999999</v>
+        <v>0.1555667</v>
       </c>
       <c r="AF47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG47">
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI47">
-        <v>19.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
@@ -5949,22 +5961,22 @@
         <v>38</v>
       </c>
       <c r="W48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X48">
-        <v>16.190000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="Y48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>1504</v>
+        <v>1121</v>
       </c>
       <c r="AB48">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC48" t="s">
         <v>40</v>
@@ -5973,19 +5985,19 @@
         <v>28</v>
       </c>
       <c r="AE48">
-        <v>0.17698</v>
+        <v>0.1616667</v>
       </c>
       <c r="AF48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG48">
         <v>1</v>
       </c>
       <c r="AH48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AI48">
-        <v>16.190000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
@@ -6053,10 +6065,10 @@
         <v>38</v>
       </c>
       <c r="W49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X49">
-        <v>23.72</v>
+        <v>13.67</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -6065,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="AA49">
-        <v>1407</v>
+        <v>1607</v>
       </c>
       <c r="AB49">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC49" t="s">
         <v>39</v>
@@ -6077,16 +6089,16 @@
         <v>28</v>
       </c>
       <c r="AE49">
-        <v>0.1555667</v>
+        <v>0.16113330000000001</v>
       </c>
       <c r="AF49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG49">
         <v>1</v>
       </c>
       <c r="AH49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6157,22 +6169,22 @@
         <v>38</v>
       </c>
       <c r="W50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="X50">
-        <v>27.49</v>
+        <v>11.16</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>2505</v>
+        <v>2362</v>
       </c>
       <c r="AB50">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="s">
         <v>40</v>
@@ -6181,19 +6193,19 @@
         <v>28</v>
       </c>
       <c r="AE50">
-        <v>0.16897999999999999</v>
+        <v>0.14946670000000001</v>
       </c>
       <c r="AF50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AG50">
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AI50">
-        <v>27.49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
@@ -6261,43 +6273,43 @@
         <v>38</v>
       </c>
       <c r="W51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X51">
-        <v>13.67</v>
+        <v>19.95</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>1568</v>
+        <v>2245</v>
       </c>
       <c r="AB51">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD51" t="s">
         <v>28</v>
       </c>
       <c r="AE51">
-        <v>0.15946669999999999</v>
+        <v>0.17247999999999999</v>
       </c>
       <c r="AF51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG51">
         <v>1</v>
       </c>
       <c r="AH51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
@@ -6365,22 +6377,22 @@
         <v>38</v>
       </c>
       <c r="W52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X52">
-        <v>11.16</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>2423</v>
+        <v>1504</v>
       </c>
       <c r="AB52">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC52" t="s">
         <v>40</v>
@@ -6389,19 +6401,19 @@
         <v>28</v>
       </c>
       <c r="AE52">
-        <v>0.155</v>
+        <v>0.17698</v>
       </c>
       <c r="AF52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AG52">
         <v>1</v>
       </c>
       <c r="AH52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AI52">
-        <v>7</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
@@ -6469,10 +6481,10 @@
         <v>38</v>
       </c>
       <c r="W53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X53">
-        <v>18.07</v>
+        <v>23.72</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -6481,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="AA53">
-        <v>1649</v>
+        <v>1407</v>
       </c>
       <c r="AB53">
         <v>12</v>
@@ -6493,16 +6505,16 @@
         <v>28</v>
       </c>
       <c r="AE53">
-        <v>0.16109999999999999</v>
+        <v>0.1555667</v>
       </c>
       <c r="AF53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG53">
         <v>1</v>
       </c>
       <c r="AH53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -6573,10 +6585,10 @@
         <v>38</v>
       </c>
       <c r="W54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X54">
-        <v>24.35</v>
+        <v>27.49</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -6585,31 +6597,31 @@
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>1211</v>
+        <v>2505</v>
       </c>
       <c r="AB54">
         <v>88</v>
       </c>
       <c r="AC54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD54" t="s">
         <v>28</v>
       </c>
       <c r="AE54">
-        <v>0.17280999999999999</v>
+        <v>0.16897999999999999</v>
       </c>
       <c r="AF54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AG54">
         <v>1</v>
       </c>
       <c r="AH54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
@@ -6677,22 +6689,22 @@
         <v>38</v>
       </c>
       <c r="W55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X55">
-        <v>26.86</v>
+        <v>13.67</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>2373</v>
+        <v>1568</v>
       </c>
       <c r="AB55">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="s">
         <v>39</v>
@@ -6701,16 +6713,16 @@
         <v>28</v>
       </c>
       <c r="AE55">
-        <v>0.18681</v>
+        <v>0.15946669999999999</v>
       </c>
       <c r="AF55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AG55">
         <v>1</v>
       </c>
       <c r="AH55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6781,22 +6793,22 @@
         <v>38</v>
       </c>
       <c r="W56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X56">
-        <v>29.37</v>
+        <v>11.16</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>1259</v>
+        <v>2423</v>
       </c>
       <c r="AB56">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC56" t="s">
         <v>40</v>
@@ -6805,19 +6817,19 @@
         <v>28</v>
       </c>
       <c r="AE56">
-        <v>0.18314</v>
+        <v>0.155</v>
       </c>
       <c r="AF56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG56">
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AI56">
-        <v>29.37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
@@ -6885,19 +6897,19 @@
         <v>38</v>
       </c>
       <c r="W57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X57">
-        <v>28.12</v>
+        <v>18.07</v>
       </c>
       <c r="Y57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>5754</v>
+        <v>1649</v>
       </c>
       <c r="AB57">
         <v>12</v>
@@ -6909,16 +6921,16 @@
         <v>28</v>
       </c>
       <c r="AE57">
-        <v>0.17898</v>
+        <v>0.16109999999999999</v>
       </c>
       <c r="AF57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG57">
         <v>1</v>
       </c>
       <c r="AH57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AI57">
         <v>0</v>
@@ -6989,10 +7001,10 @@
         <v>38</v>
       </c>
       <c r="W58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X58">
-        <v>25.6</v>
+        <v>24.35</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -7001,31 +7013,31 @@
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="AB58">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD58" t="s">
         <v>28</v>
       </c>
       <c r="AE58">
-        <v>0.19497</v>
+        <v>0.17280999999999999</v>
       </c>
       <c r="AF58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG58">
         <v>1</v>
       </c>
       <c r="AH58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AI58">
-        <v>25.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
@@ -7093,22 +7105,22 @@
         <v>38</v>
       </c>
       <c r="W59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X59">
-        <v>25.6</v>
+        <v>26.86</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
         <v>1</v>
       </c>
       <c r="AA59">
-        <v>1368</v>
+        <v>2373</v>
       </c>
       <c r="AB59">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC59" t="s">
         <v>39</v>
@@ -7117,16 +7129,16 @@
         <v>28</v>
       </c>
       <c r="AE59">
-        <v>0.15333330000000001</v>
+        <v>0.18681</v>
       </c>
       <c r="AF59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AG59">
         <v>1</v>
       </c>
       <c r="AH59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7197,10 +7209,10 @@
         <v>38</v>
       </c>
       <c r="W60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X60">
-        <v>28.12</v>
+        <v>29.37</v>
       </c>
       <c r="Y60">
         <v>1</v>
@@ -7209,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="AA60">
-        <v>1398</v>
+        <v>1259</v>
       </c>
       <c r="AB60">
         <v>88</v>
@@ -7221,19 +7233,19 @@
         <v>28</v>
       </c>
       <c r="AE60">
-        <v>0.18748000000000001</v>
+        <v>0.18314</v>
       </c>
       <c r="AF60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG60">
         <v>1</v>
       </c>
       <c r="AH60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI60">
-        <v>28.12</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
@@ -7301,22 +7313,22 @@
         <v>38</v>
       </c>
       <c r="W61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="X61">
-        <v>19.329999999999998</v>
+        <v>28.12</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z61">
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>1391</v>
+        <v>5754</v>
       </c>
       <c r="AB61">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="s">
         <v>39</v>
@@ -7325,16 +7337,16 @@
         <v>28</v>
       </c>
       <c r="AE61">
-        <v>0.1555667</v>
+        <v>0.17898</v>
       </c>
       <c r="AF61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG61">
         <v>1</v>
       </c>
       <c r="AH61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7405,10 +7417,10 @@
         <v>38</v>
       </c>
       <c r="W62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X62">
-        <v>10.53</v>
+        <v>25.6</v>
       </c>
       <c r="Y62">
         <v>1</v>
@@ -7417,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>2306</v>
+        <v>1222</v>
       </c>
       <c r="AB62">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC62" t="s">
         <v>40</v>
@@ -7429,19 +7441,19 @@
         <v>28</v>
       </c>
       <c r="AE62">
-        <v>0.19697000000000001</v>
+        <v>0.19497</v>
       </c>
       <c r="AF62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AG62">
         <v>1</v>
       </c>
       <c r="AH62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AI62">
-        <v>10.53</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
@@ -7509,22 +7521,22 @@
         <v>38</v>
       </c>
       <c r="W63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X63">
-        <v>13.05</v>
+        <v>25.6</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>2096</v>
+        <v>1368</v>
       </c>
       <c r="AB63">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC63" t="s">
         <v>39</v>
@@ -7533,16 +7545,16 @@
         <v>28</v>
       </c>
       <c r="AE63">
-        <v>0.18648000000000001</v>
+        <v>0.15333330000000001</v>
       </c>
       <c r="AF63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AG63">
         <v>1</v>
       </c>
       <c r="AH63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -7613,10 +7625,10 @@
         <v>38</v>
       </c>
       <c r="W64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X64">
-        <v>29.37</v>
+        <v>28.12</v>
       </c>
       <c r="Y64">
         <v>1</v>
@@ -7625,31 +7637,31 @@
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>1778</v>
+        <v>1398</v>
       </c>
       <c r="AB64">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD64" t="s">
         <v>28</v>
       </c>
       <c r="AE64">
-        <v>0.18581</v>
+        <v>0.18748000000000001</v>
       </c>
       <c r="AF64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AG64">
         <v>1</v>
       </c>
       <c r="AH64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
@@ -7717,10 +7729,10 @@
         <v>38</v>
       </c>
       <c r="W65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X65">
-        <v>9.2799999999999994</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -7729,31 +7741,31 @@
         <v>1</v>
       </c>
       <c r="AA65">
-        <v>1458</v>
+        <v>1391</v>
       </c>
       <c r="AB65">
         <v>50</v>
       </c>
       <c r="AC65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD65" t="s">
         <v>28</v>
       </c>
       <c r="AE65">
-        <v>0.15390000000000001</v>
+        <v>0.1555667</v>
       </c>
       <c r="AF65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AG65">
         <v>1</v>
       </c>
       <c r="AH65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AI65">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
@@ -7821,22 +7833,22 @@
         <v>38</v>
       </c>
       <c r="W66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X66">
-        <v>13.05</v>
+        <v>10.53</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66">
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>988</v>
+        <v>2306</v>
       </c>
       <c r="AB66">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC66" t="s">
         <v>40</v>
@@ -7845,19 +7857,19 @@
         <v>28</v>
       </c>
       <c r="AE66">
-        <v>0.1505667</v>
+        <v>0.19697000000000001</v>
       </c>
       <c r="AF66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AG66">
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AI66">
-        <v>7</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
@@ -7925,43 +7937,43 @@
         <v>38</v>
       </c>
       <c r="W67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X67">
-        <v>10.53</v>
+        <v>13.05</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67">
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>1060</v>
+        <v>2096</v>
       </c>
       <c r="AB67">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD67" t="s">
         <v>28</v>
       </c>
       <c r="AE67">
-        <v>0.14610000000000001</v>
+        <v>0.18648000000000001</v>
       </c>
       <c r="AF67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AG67">
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AI67">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
@@ -8029,10 +8041,10 @@
         <v>38</v>
       </c>
       <c r="W68">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="X68">
-        <v>21.84</v>
+        <v>29.37</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -8041,30 +8053,446 @@
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>1591</v>
+        <v>1778</v>
       </c>
       <c r="AB68">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD68" t="s">
         <v>28</v>
       </c>
       <c r="AE68">
+        <v>0.18581</v>
+      </c>
+      <c r="AF68">
+        <v>63</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>63</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>1002</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>77.81</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69">
+        <v>60.01</v>
+      </c>
+      <c r="K69">
+        <v>9</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+      <c r="O69">
+        <v>781033223</v>
+      </c>
+      <c r="P69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" s="1">
+        <v>43811</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="V69" t="s">
+        <v>38</v>
+      </c>
+      <c r="W69">
+        <v>64</v>
+      </c>
+      <c r="X69">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>1458</v>
+      </c>
+      <c r="AB69">
+        <v>50</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE69">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="AF69">
+        <v>64</v>
+      </c>
+      <c r="AG69">
+        <v>1</v>
+      </c>
+      <c r="AH69">
+        <v>64</v>
+      </c>
+      <c r="AI69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70">
+        <v>1002</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>77.81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70">
+        <v>60.01</v>
+      </c>
+      <c r="K70">
+        <v>9</v>
+      </c>
+      <c r="L70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>7</v>
+      </c>
+      <c r="O70">
+        <v>781033223</v>
+      </c>
+      <c r="P70" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="1">
+        <v>43811</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="V70" t="s">
+        <v>38</v>
+      </c>
+      <c r="W70">
+        <v>65</v>
+      </c>
+      <c r="X70">
+        <v>13.05</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>988</v>
+      </c>
+      <c r="AB70">
+        <v>50</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE70">
+        <v>0.1505667</v>
+      </c>
+      <c r="AF70">
+        <v>65</v>
+      </c>
+      <c r="AG70">
+        <v>1</v>
+      </c>
+      <c r="AH70">
+        <v>65</v>
+      </c>
+      <c r="AI70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>1002</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>77.81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71">
+        <v>60.01</v>
+      </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
+      <c r="L71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <v>781033223</v>
+      </c>
+      <c r="P71" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" s="1">
+        <v>43811</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="V71" t="s">
+        <v>38</v>
+      </c>
+      <c r="W71">
+        <v>66</v>
+      </c>
+      <c r="X71">
+        <v>10.53</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>1060</v>
+      </c>
+      <c r="AB71">
+        <v>50</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE71">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="AF71">
+        <v>66</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>66</v>
+      </c>
+      <c r="AI71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>1002</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>77.81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72">
+        <v>60.01</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
+        <v>781033223</v>
+      </c>
+      <c r="P72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="1">
+        <v>43811</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="V72" t="s">
+        <v>38</v>
+      </c>
+      <c r="W72">
+        <v>67</v>
+      </c>
+      <c r="X72">
+        <v>21.84</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1591</v>
+      </c>
+      <c r="AB72">
+        <v>88</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE72">
         <v>0.18381</v>
       </c>
-      <c r="AF68">
+      <c r="AF72">
         <v>67</v>
       </c>
-      <c r="AG68">
-        <v>1</v>
-      </c>
-      <c r="AH68">
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
         <v>67</v>
       </c>
-      <c r="AI68">
+      <c r="AI72">
         <v>21.84</v>
       </c>
     </row>

--- a/data/social/S_1002.xlsx
+++ b/data/social/S_1002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F789D3C0-076C-0544-8716-2D282C986BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809E5E1-4D3E-8C49-8D78-31E275236DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="42">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Win</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -987,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1173,8 +1176,8 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
+      <c r="Y2" t="s">
+        <v>41</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1280,8 +1283,8 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
+      <c r="Y3" t="s">
+        <v>41</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1387,8 +1390,8 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
+      <c r="Y4" t="s">
+        <v>41</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1494,8 +1497,8 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
+      <c r="Y5" t="s">
+        <v>41</v>
       </c>
       <c r="Z5">
         <v>0</v>

--- a/data/social/S_1002.xlsx
+++ b/data/social/S_1002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809E5E1-4D3E-8C49-8D78-31E275236DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A3848-94AD-074B-B6CD-FEF0E214755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social_1002" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="42">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -991,91 +991,82 @@
   <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
         <v>23</v>
       </c>
       <c r="AB1" t="s">
@@ -1164,25 +1155,16 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
@@ -1271,25 +1253,16 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
@@ -1378,25 +1351,16 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
@@ -1485,25 +1449,16 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
@@ -1532,82 +1487,73 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>1002</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>77.81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>77.81</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="L6">
         <v>781033223</v>
       </c>
-      <c r="P6" t="s">
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1">
         <v>43811</v>
       </c>
-      <c r="U6" s="2">
+      <c r="R6" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V6" t="s">
+      <c r="S6" t="s">
         <v>38</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>21.21</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>21.21</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
         <v>6908</v>
       </c>
       <c r="AB6">
@@ -1636,82 +1582,73 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>1002</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>77.81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>77.81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="L7">
         <v>781033223</v>
       </c>
-      <c r="P7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1">
         <v>43811</v>
       </c>
-      <c r="U7" s="2">
+      <c r="R7" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V7" t="s">
+      <c r="S7" t="s">
         <v>38</v>
       </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>9.91</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>9.91</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
         <v>1917</v>
       </c>
       <c r="AB7">
@@ -1740,82 +1677,73 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>1002</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>77.81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>77.81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="L8">
         <v>781033223</v>
       </c>
-      <c r="P8" t="s">
+      <c r="M8" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="1">
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1">
         <v>43811</v>
       </c>
-      <c r="U8" s="2">
+      <c r="R8" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V8" t="s">
+      <c r="S8" t="s">
         <v>38</v>
       </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>19.95</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>19.95</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
         <v>1418</v>
       </c>
       <c r="AB8">
@@ -1844,82 +1772,73 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
+      <c r="A9" t="s">
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>1002</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>77.81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>77.81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="L9">
         <v>781033223</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="1">
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="1">
         <v>43811</v>
       </c>
-      <c r="U9" s="2">
+      <c r="R9" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V9" t="s">
+      <c r="S9" t="s">
         <v>38</v>
       </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>22.47</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
       <c r="W9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>22.47</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
         <v>993</v>
       </c>
       <c r="AB9">
@@ -1948,82 +1867,73 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>1002</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>77.81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>77.81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
-      </c>
-      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="L10">
         <v>781033223</v>
       </c>
-      <c r="P10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1">
         <v>43811</v>
       </c>
-      <c r="U10" s="2">
+      <c r="R10" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V10" t="s">
+      <c r="S10" t="s">
         <v>38</v>
       </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>12.42</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
       <c r="W10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>12.42</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
         <v>1728</v>
       </c>
       <c r="AB10">
@@ -2052,82 +1962,73 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>1002</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>77.81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>77.81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>7</v>
-      </c>
-      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="L11">
         <v>781033223</v>
       </c>
-      <c r="P11" t="s">
+      <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="1">
         <v>43811</v>
       </c>
-      <c r="U11" s="2">
+      <c r="R11" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V11" t="s">
+      <c r="S11" t="s">
         <v>38</v>
       </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>13.67</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
       <c r="W11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>13.67</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
         <v>1362</v>
       </c>
       <c r="AB11">
@@ -2156,82 +2057,73 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>1002</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>77.81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
       <c r="G12">
-        <v>77.81</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
-      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="L12">
         <v>781033223</v>
       </c>
-      <c r="P12" t="s">
+      <c r="M12" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="1">
         <v>43811</v>
       </c>
-      <c r="U12" s="2">
+      <c r="R12" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V12" t="s">
+      <c r="S12" t="s">
         <v>38</v>
       </c>
+      <c r="T12">
+        <v>7</v>
+      </c>
+      <c r="U12">
+        <v>18.7</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
       <c r="W12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>18.7</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
         <v>2445</v>
       </c>
       <c r="AB12">
@@ -2260,82 +2152,73 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>1002</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>77.81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>77.81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>7</v>
-      </c>
-      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="L13">
         <v>781033223</v>
       </c>
-      <c r="P13" t="s">
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="1">
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="1">
         <v>43811</v>
       </c>
-      <c r="U13" s="2">
+      <c r="R13" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V13" t="s">
+      <c r="S13" t="s">
         <v>38</v>
       </c>
+      <c r="T13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <v>12.42</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
       <c r="W13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>12.42</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
         <v>3495</v>
       </c>
       <c r="AB13">
@@ -2364,82 +2247,73 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
+      <c r="A14" t="s">
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14">
-        <v>1002</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>77.81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>77.81</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>781033223</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="1">
+        <v>43811</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14">
         <v>9</v>
       </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
-      <c r="O14">
-        <v>781033223</v>
-      </c>
-      <c r="P14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S14" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V14" t="s">
-        <v>38</v>
+      <c r="U14">
+        <v>14.93</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>14.93</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-      <c r="AA14">
         <v>1499</v>
       </c>
       <c r="AB14">
@@ -2468,82 +2342,73 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>1002</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>77.81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
       <c r="G15">
-        <v>77.81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>7</v>
-      </c>
-      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="L15">
         <v>781033223</v>
       </c>
-      <c r="P15" t="s">
+      <c r="M15" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="1">
         <v>43811</v>
       </c>
-      <c r="U15" s="2">
+      <c r="R15" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V15" t="s">
+      <c r="S15" t="s">
         <v>38</v>
       </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
       <c r="W15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
         <v>2573</v>
       </c>
       <c r="AB15">
@@ -2572,82 +2437,73 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16">
-        <v>1002</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>77.81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
       </c>
       <c r="G16">
-        <v>77.81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>7</v>
-      </c>
-      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="L16">
         <v>781033223</v>
       </c>
-      <c r="P16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="1">
         <v>43811</v>
       </c>
-      <c r="U16" s="2">
+      <c r="R16" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V16" t="s">
+      <c r="S16" t="s">
         <v>38</v>
       </c>
+      <c r="T16">
+        <v>11</v>
+      </c>
+      <c r="U16">
+        <v>27.49</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
       <c r="W16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>27.49</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
         <v>1357</v>
       </c>
       <c r="AB16">
@@ -2676,82 +2532,73 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
+      <c r="A17" t="s">
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>1002</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>77.81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
       </c>
       <c r="G17">
-        <v>77.81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>9</v>
-      </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="L17">
         <v>781033223</v>
       </c>
-      <c r="P17" t="s">
+      <c r="M17" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" t="s">
-        <v>37</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="1">
         <v>43811</v>
       </c>
-      <c r="U17" s="2">
+      <c r="R17" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V17" t="s">
+      <c r="S17" t="s">
         <v>38</v>
       </c>
+      <c r="T17">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
       <c r="W17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>1</v>
-      </c>
-      <c r="AA17">
         <v>1419</v>
       </c>
       <c r="AB17">
@@ -2780,82 +2627,73 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
+      <c r="A18" t="s">
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <v>1002</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>77.81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>77.81</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>9</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="L18">
         <v>781033223</v>
       </c>
-      <c r="P18" t="s">
+      <c r="M18" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="1">
         <v>43811</v>
       </c>
-      <c r="U18" s="2">
+      <c r="R18" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V18" t="s">
+      <c r="S18" t="s">
         <v>38</v>
       </c>
+      <c r="T18">
+        <v>13</v>
+      </c>
+      <c r="U18">
+        <v>14.93</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
       <c r="W18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>14.93</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
         <v>1061</v>
       </c>
       <c r="AB18">
@@ -2884,82 +2722,73 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0</v>
+      <c r="A19" t="s">
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <v>1002</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>77.81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>77.81</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="L19">
         <v>781033223</v>
       </c>
-      <c r="P19" t="s">
+      <c r="M19" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="1">
         <v>43811</v>
       </c>
-      <c r="U19" s="2">
+      <c r="R19" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V19" t="s">
+      <c r="S19" t="s">
         <v>38</v>
       </c>
+      <c r="T19">
+        <v>14</v>
+      </c>
+      <c r="U19">
+        <v>9.91</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
       <c r="W19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>9.91</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
         <v>4213</v>
       </c>
       <c r="AB19">
@@ -2988,82 +2817,73 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0</v>
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>1002</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>77.81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>77.81</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J20">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>9</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>7</v>
-      </c>
-      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="L20">
         <v>781033223</v>
       </c>
-      <c r="P20" t="s">
+      <c r="M20" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="1">
         <v>43811</v>
       </c>
-      <c r="U20" s="2">
+      <c r="R20" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V20" t="s">
+      <c r="S20" t="s">
         <v>38</v>
       </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>21.21</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
       <c r="W20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>21.21</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
         <v>1424</v>
       </c>
       <c r="AB20">
@@ -3092,82 +2912,73 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0</v>
+      <c r="A21" t="s">
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21">
-        <v>1002</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>77.81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>77.81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>9</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>7</v>
-      </c>
-      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="L21">
         <v>781033223</v>
       </c>
-      <c r="P21" t="s">
+      <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="1">
         <v>43811</v>
       </c>
-      <c r="U21" s="2">
+      <c r="R21" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V21" t="s">
+      <c r="S21" t="s">
         <v>38</v>
       </c>
+      <c r="T21">
+        <v>16</v>
+      </c>
+      <c r="U21">
+        <v>8.65</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
       <c r="W21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>8.65</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
         <v>1348</v>
       </c>
       <c r="AB21">
@@ -3196,82 +3007,73 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22">
-        <v>1002</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>77.81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>77.81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>9</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>7</v>
-      </c>
-      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="L22">
         <v>781033223</v>
       </c>
-      <c r="P22" t="s">
+      <c r="M22" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="1">
         <v>43811</v>
       </c>
-      <c r="U22" s="2">
+      <c r="R22" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V22" t="s">
+      <c r="S22" t="s">
         <v>38</v>
       </c>
+      <c r="T22">
+        <v>17</v>
+      </c>
+      <c r="U22">
+        <v>24.98</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
       <c r="W22">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>24.98</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
         <v>1565</v>
       </c>
       <c r="AB22">
@@ -3300,82 +3102,73 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
+      <c r="A23" t="s">
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>1002</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>77.81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
       </c>
       <c r="G23">
-        <v>77.81</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J23">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="L23">
         <v>781033223</v>
       </c>
-      <c r="P23" t="s">
+      <c r="M23" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="1">
         <v>43811</v>
       </c>
-      <c r="U23" s="2">
+      <c r="R23" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V23" t="s">
+      <c r="S23" t="s">
         <v>38</v>
       </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
       <c r="W23">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23">
         <v>1030</v>
       </c>
       <c r="AB23">
@@ -3404,82 +3197,73 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24">
-        <v>1002</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>77.81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
       <c r="G24">
-        <v>77.81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>9</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>7</v>
-      </c>
-      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="L24">
         <v>781033223</v>
       </c>
-      <c r="P24" t="s">
+      <c r="M24" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="1">
         <v>43811</v>
       </c>
-      <c r="U24" s="2">
+      <c r="R24" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V24" t="s">
+      <c r="S24" t="s">
         <v>38</v>
       </c>
+      <c r="T24">
+        <v>19</v>
+      </c>
+      <c r="U24">
+        <v>28.74</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
       <c r="W24">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>28.74</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24">
         <v>1876</v>
       </c>
       <c r="AB24">
@@ -3508,82 +3292,73 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25">
-        <v>1002</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>77.81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
       </c>
       <c r="G25">
-        <v>77.81</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>7</v>
-      </c>
-      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="L25">
         <v>781033223</v>
       </c>
-      <c r="P25" t="s">
+      <c r="M25" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="1">
         <v>43811</v>
       </c>
-      <c r="U25" s="2">
+      <c r="R25" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V25" t="s">
+      <c r="S25" t="s">
         <v>38</v>
       </c>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <v>28.74</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
       <c r="W25">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>28.74</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25">
         <v>2765</v>
       </c>
       <c r="AB25">
@@ -3612,82 +3387,73 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0</v>
+      <c r="A26" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>1002</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>77.81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
       <c r="G26">
-        <v>77.81</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J26">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>7</v>
-      </c>
-      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="L26">
         <v>781033223</v>
       </c>
-      <c r="P26" t="s">
+      <c r="M26" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="1">
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="1">
         <v>43811</v>
       </c>
-      <c r="U26" s="2">
+      <c r="R26" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V26" t="s">
+      <c r="S26" t="s">
         <v>38</v>
       </c>
+      <c r="T26">
+        <v>21</v>
+      </c>
+      <c r="U26">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
       <c r="W26">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
         <v>1910</v>
       </c>
       <c r="AB26">
@@ -3716,82 +3482,73 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0</v>
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27">
-        <v>1002</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>77.81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>77.81</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>9</v>
-      </c>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>7</v>
-      </c>
-      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="L27">
         <v>781033223</v>
       </c>
-      <c r="P27" t="s">
+      <c r="M27" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="N27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="1">
         <v>43811</v>
       </c>
-      <c r="U27" s="2">
+      <c r="R27" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V27" t="s">
+      <c r="S27" t="s">
         <v>38</v>
       </c>
+      <c r="T27">
+        <v>22</v>
+      </c>
+      <c r="U27">
+        <v>27.49</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
       <c r="W27">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>27.49</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>1</v>
-      </c>
-      <c r="AA27">
         <v>1485</v>
       </c>
       <c r="AB27">
@@ -3820,82 +3577,73 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <v>1002</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>77.81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
       </c>
       <c r="G28">
-        <v>77.81</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J28">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>9</v>
-      </c>
-      <c r="L28" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>7</v>
-      </c>
-      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="L28">
         <v>781033223</v>
       </c>
-      <c r="P28" t="s">
+      <c r="M28" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" s="1">
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="1">
         <v>43811</v>
       </c>
-      <c r="U28" s="2">
+      <c r="R28" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V28" t="s">
+      <c r="S28" t="s">
         <v>38</v>
       </c>
+      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="U28">
+        <v>22.47</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
       <c r="W28">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>22.47</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
         <v>1319</v>
       </c>
       <c r="AB28">
@@ -3924,82 +3672,73 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29">
-        <v>1002</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>77.81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
       </c>
       <c r="G29">
-        <v>77.81</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J29">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>9</v>
-      </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>7</v>
-      </c>
-      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="L29">
         <v>781033223</v>
       </c>
-      <c r="P29" t="s">
+      <c r="M29" t="s">
         <v>36</v>
       </c>
-      <c r="Q29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" s="1">
+      <c r="N29" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="1">
         <v>43811</v>
       </c>
-      <c r="U29" s="2">
+      <c r="R29" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V29" t="s">
+      <c r="S29" t="s">
         <v>38</v>
       </c>
+      <c r="T29">
+        <v>24</v>
+      </c>
+      <c r="U29">
+        <v>28.74</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
       <c r="W29">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>28.74</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
         <v>1594</v>
       </c>
       <c r="AB29">
@@ -4028,82 +3767,73 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30">
-        <v>1002</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>77.81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>77.81</v>
-      </c>
-      <c r="H30" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J30">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>9</v>
-      </c>
-      <c r="L30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>7</v>
-      </c>
-      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="L30">
         <v>781033223</v>
       </c>
-      <c r="P30" t="s">
+      <c r="M30" t="s">
         <v>36</v>
       </c>
-      <c r="Q30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S30" s="1">
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="1">
         <v>43811</v>
       </c>
-      <c r="U30" s="2">
+      <c r="R30" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V30" t="s">
+      <c r="S30" t="s">
         <v>38</v>
       </c>
+      <c r="T30">
+        <v>25</v>
+      </c>
+      <c r="U30">
+        <v>18.7</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
       <c r="W30">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>18.7</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30">
         <v>1608</v>
       </c>
       <c r="AB30">
@@ -4132,82 +3862,73 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0</v>
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31">
-        <v>1002</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>77.81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>77.81</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J31">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>9</v>
-      </c>
-      <c r="L31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>7</v>
-      </c>
-      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="L31">
         <v>781033223</v>
       </c>
-      <c r="P31" t="s">
+      <c r="M31" t="s">
         <v>36</v>
       </c>
-      <c r="Q31" t="s">
-        <v>37</v>
-      </c>
-      <c r="R31" t="s">
-        <v>37</v>
-      </c>
-      <c r="S31" s="1">
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="1">
         <v>43811</v>
       </c>
-      <c r="U31" s="2">
+      <c r="R31" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V31" t="s">
+      <c r="S31" t="s">
         <v>38</v>
       </c>
+      <c r="T31">
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <v>23.72</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
       <c r="W31">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>23.72</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
         <v>2856</v>
       </c>
       <c r="AB31">
@@ -4236,82 +3957,73 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>1002</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>77.81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>77.81</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J32">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>9</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>7</v>
-      </c>
-      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="L32">
         <v>781033223</v>
       </c>
-      <c r="P32" t="s">
+      <c r="M32" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" t="s">
-        <v>37</v>
-      </c>
-      <c r="R32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32" s="1">
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="1">
         <v>43811</v>
       </c>
-      <c r="U32" s="2">
+      <c r="R32" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V32" t="s">
+      <c r="S32" t="s">
         <v>38</v>
       </c>
+      <c r="T32">
+        <v>27</v>
+      </c>
+      <c r="U32">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
       <c r="W32">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
         <v>1555</v>
       </c>
       <c r="AB32">
@@ -4340,82 +4052,73 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0</v>
+      <c r="A33" t="s">
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
-        <v>1002</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>77.81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
       </c>
       <c r="G33">
-        <v>77.81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J33">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>9</v>
-      </c>
-      <c r="L33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>7</v>
-      </c>
-      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="L33">
         <v>781033223</v>
       </c>
-      <c r="P33" t="s">
+      <c r="M33" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" t="s">
-        <v>37</v>
-      </c>
-      <c r="R33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S33" s="1">
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="1">
         <v>43811</v>
       </c>
-      <c r="U33" s="2">
+      <c r="R33" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V33" t="s">
+      <c r="S33" t="s">
         <v>38</v>
       </c>
+      <c r="T33">
+        <v>28</v>
+      </c>
+      <c r="U33">
+        <v>26.23</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
       <c r="W33">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>26.23</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
         <v>1022</v>
       </c>
       <c r="AB33">
@@ -4444,82 +4147,73 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0</v>
+      <c r="A34" t="s">
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34">
-        <v>1002</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>77.81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
       </c>
       <c r="G34">
-        <v>77.81</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J34">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>9</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>7</v>
-      </c>
-      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="L34">
         <v>781033223</v>
       </c>
-      <c r="P34" t="s">
+      <c r="M34" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" t="s">
-        <v>37</v>
-      </c>
-      <c r="R34" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" s="1">
+      <c r="N34" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="1">
         <v>43811</v>
       </c>
-      <c r="U34" s="2">
+      <c r="R34" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V34" t="s">
+      <c r="S34" t="s">
         <v>38</v>
       </c>
+      <c r="T34">
+        <v>29</v>
+      </c>
+      <c r="U34">
+        <v>12.42</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
       <c r="W34">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>12.42</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
         <v>2182</v>
       </c>
       <c r="AB34">
@@ -4548,82 +4242,73 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0</v>
+      <c r="A35" t="s">
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35">
-        <v>1002</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>77.81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>77.81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J35">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>9</v>
-      </c>
-      <c r="L35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>7</v>
-      </c>
-      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="L35">
         <v>781033223</v>
       </c>
-      <c r="P35" t="s">
+      <c r="M35" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" t="s">
-        <v>37</v>
-      </c>
-      <c r="R35" t="s">
-        <v>37</v>
-      </c>
-      <c r="S35" s="1">
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="1">
         <v>43811</v>
       </c>
-      <c r="U35" s="2">
+      <c r="R35" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V35" t="s">
+      <c r="S35" t="s">
         <v>38</v>
       </c>
+      <c r="T35">
+        <v>30</v>
+      </c>
+      <c r="U35">
+        <v>9.91</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
       <c r="W35">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>9.91</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35">
         <v>1019</v>
       </c>
       <c r="AB35">
@@ -4652,82 +4337,73 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0</v>
+      <c r="A36" t="s">
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <v>1002</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>77.81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>77.81</v>
-      </c>
-      <c r="H36" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J36">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>7</v>
-      </c>
-      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="L36">
         <v>781033223</v>
       </c>
-      <c r="P36" t="s">
+      <c r="M36" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" t="s">
-        <v>37</v>
-      </c>
-      <c r="R36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" s="1">
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="1">
         <v>43811</v>
       </c>
-      <c r="U36" s="2">
+      <c r="R36" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V36" t="s">
+      <c r="S36" t="s">
         <v>38</v>
       </c>
+      <c r="T36">
+        <v>31</v>
+      </c>
+      <c r="U36">
+        <v>21.21</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
       <c r="W36">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>21.21</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AA36">
         <v>1714</v>
       </c>
       <c r="AB36">
@@ -4756,82 +4432,73 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0</v>
+      <c r="A37" t="s">
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>77.81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>60.01</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>781033223</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="1">
+        <v>43811</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37">
         <v>32</v>
       </c>
-      <c r="E37">
-        <v>1002</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>77.81</v>
-      </c>
-      <c r="H37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37">
-        <v>60.01</v>
-      </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
-      <c r="L37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>7</v>
-      </c>
-      <c r="O37">
-        <v>781033223</v>
-      </c>
-      <c r="P37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>37</v>
-      </c>
-      <c r="R37" t="s">
-        <v>37</v>
-      </c>
-      <c r="S37" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V37" t="s">
-        <v>38</v>
+      <c r="U37">
+        <v>23.72</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>23.72</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AA37">
         <v>1546</v>
       </c>
       <c r="AB37">
@@ -4860,82 +4527,73 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0</v>
+      <c r="A38" t="s">
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38">
-        <v>1002</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>77.81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>77.81</v>
-      </c>
-      <c r="H38" t="s">
+        <v>60.01</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>781033223</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="1">
+        <v>43811</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="S38" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38">
         <v>33</v>
       </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38">
-        <v>60.01</v>
-      </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>7</v>
-      </c>
-      <c r="O38">
-        <v>781033223</v>
-      </c>
-      <c r="P38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>37</v>
-      </c>
-      <c r="R38" t="s">
-        <v>37</v>
-      </c>
-      <c r="S38" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V38" t="s">
-        <v>38</v>
+      <c r="U38">
+        <v>22.47</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>22.47</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
         <v>1992</v>
       </c>
       <c r="AB38">
@@ -4964,82 +4622,73 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0</v>
+      <c r="A39" t="s">
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39">
-        <v>1002</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>77.81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
       </c>
       <c r="G39">
-        <v>77.81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
       </c>
       <c r="I39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>781033223</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" s="1">
+        <v>43811</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39">
         <v>34</v>
       </c>
-      <c r="J39">
-        <v>60.01</v>
-      </c>
-      <c r="K39">
-        <v>9</v>
-      </c>
-      <c r="L39" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>7</v>
-      </c>
-      <c r="O39">
-        <v>781033223</v>
-      </c>
-      <c r="P39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>37</v>
-      </c>
-      <c r="R39" t="s">
-        <v>37</v>
-      </c>
-      <c r="S39" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V39" t="s">
-        <v>38</v>
+      <c r="U39">
+        <v>8.65</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>8.65</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
         <v>2860</v>
       </c>
       <c r="AB39">
@@ -5068,82 +4717,73 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0</v>
+      <c r="A40" t="s">
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40">
-        <v>1002</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>77.81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
       </c>
       <c r="G40">
-        <v>77.81</v>
-      </c>
-      <c r="H40" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J40">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>9</v>
-      </c>
-      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>781033223</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" s="1">
+        <v>43811</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.71615740740740741</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40">
         <v>35</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-      <c r="O40">
-        <v>781033223</v>
-      </c>
-      <c r="P40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>37</v>
-      </c>
-      <c r="R40" t="s">
-        <v>37</v>
-      </c>
-      <c r="S40" s="1">
-        <v>43811</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0.71615740740740741</v>
-      </c>
-      <c r="V40" t="s">
-        <v>38</v>
+      <c r="U40">
+        <v>24.98</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>24.98</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40">
         <v>1389</v>
       </c>
       <c r="AB40">
@@ -5172,82 +4812,73 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0</v>
+      <c r="A41" t="s">
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41">
-        <v>1002</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>77.81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
       </c>
       <c r="G41">
-        <v>77.81</v>
-      </c>
-      <c r="H41" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J41">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>9</v>
-      </c>
-      <c r="L41" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>7</v>
-      </c>
-      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="L41">
         <v>781033223</v>
       </c>
-      <c r="P41" t="s">
+      <c r="M41" t="s">
         <v>36</v>
       </c>
-      <c r="Q41" t="s">
-        <v>37</v>
-      </c>
-      <c r="R41" t="s">
-        <v>37</v>
-      </c>
-      <c r="S41" s="1">
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" s="1">
         <v>43811</v>
       </c>
-      <c r="U41" s="2">
+      <c r="R41" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V41" t="s">
+      <c r="S41" t="s">
         <v>38</v>
       </c>
+      <c r="T41">
+        <v>36</v>
+      </c>
+      <c r="U41">
+        <v>26.23</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
       <c r="W41">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>26.23</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
         <v>1274</v>
       </c>
       <c r="AB41">
@@ -5276,82 +4907,73 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>0</v>
+      <c r="A42" t="s">
+        <v>32</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42">
-        <v>1002</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>77.81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
       </c>
       <c r="G42">
-        <v>77.81</v>
-      </c>
-      <c r="H42" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J42">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>9</v>
-      </c>
-      <c r="L42" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>7</v>
-      </c>
-      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="L42">
         <v>781033223</v>
       </c>
-      <c r="P42" t="s">
+      <c r="M42" t="s">
         <v>36</v>
       </c>
-      <c r="Q42" t="s">
-        <v>37</v>
-      </c>
-      <c r="R42" t="s">
-        <v>37</v>
-      </c>
-      <c r="S42" s="1">
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" s="1">
         <v>43811</v>
       </c>
-      <c r="U42" s="2">
+      <c r="R42" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V42" t="s">
+      <c r="S42" t="s">
         <v>38</v>
       </c>
+      <c r="T42">
+        <v>37</v>
+      </c>
+      <c r="U42">
+        <v>26.23</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
       <c r="W42">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>26.23</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
         <v>1287</v>
       </c>
       <c r="AB42">
@@ -5380,82 +5002,73 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" t="s">
+        <v>32</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43">
-        <v>1002</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>77.81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
       </c>
       <c r="G43">
-        <v>77.81</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J43">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>9</v>
-      </c>
-      <c r="L43" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>7</v>
-      </c>
-      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="L43">
         <v>781033223</v>
       </c>
-      <c r="P43" t="s">
+      <c r="M43" t="s">
         <v>36</v>
       </c>
-      <c r="Q43" t="s">
-        <v>37</v>
-      </c>
-      <c r="R43" t="s">
-        <v>37</v>
-      </c>
-      <c r="S43" s="1">
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" s="1">
         <v>43811</v>
       </c>
-      <c r="U43" s="2">
+      <c r="R43" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V43" t="s">
+      <c r="S43" t="s">
         <v>38</v>
       </c>
+      <c r="T43">
+        <v>38</v>
+      </c>
+      <c r="U43">
+        <v>14.93</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
       <c r="W43">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>14.93</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
         <v>1319</v>
       </c>
       <c r="AB43">
@@ -5484,82 +5097,73 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>0</v>
+      <c r="A44" t="s">
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44">
-        <v>1002</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>77.81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>77.81</v>
-      </c>
-      <c r="H44" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J44">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>7</v>
-      </c>
-      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="L44">
         <v>781033223</v>
       </c>
-      <c r="P44" t="s">
+      <c r="M44" t="s">
         <v>36</v>
       </c>
-      <c r="Q44" t="s">
-        <v>37</v>
-      </c>
-      <c r="R44" t="s">
-        <v>37</v>
-      </c>
-      <c r="S44" s="1">
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" s="1">
         <v>43811</v>
       </c>
-      <c r="U44" s="2">
+      <c r="R44" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V44" t="s">
+      <c r="S44" t="s">
         <v>38</v>
       </c>
+      <c r="T44">
+        <v>39</v>
+      </c>
+      <c r="U44">
+        <v>24.98</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
       <c r="W44">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>24.98</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
         <v>1489</v>
       </c>
       <c r="AB44">
@@ -5588,82 +5192,73 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0</v>
+      <c r="A45" t="s">
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45">
-        <v>1002</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>77.81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
       </c>
       <c r="G45">
-        <v>77.81</v>
-      </c>
-      <c r="H45" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
       </c>
       <c r="I45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J45">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>9</v>
-      </c>
-      <c r="L45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
-      </c>
-      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="L45">
         <v>781033223</v>
       </c>
-      <c r="P45" t="s">
+      <c r="M45" t="s">
         <v>36</v>
       </c>
-      <c r="Q45" t="s">
-        <v>37</v>
-      </c>
-      <c r="R45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S45" s="1">
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" s="1">
         <v>43811</v>
       </c>
-      <c r="U45" s="2">
+      <c r="R45" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V45" t="s">
+      <c r="S45" t="s">
         <v>38</v>
       </c>
+      <c r="T45">
+        <v>40</v>
+      </c>
+      <c r="U45">
+        <v>11.16</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
       <c r="W45">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>11.16</v>
-      </c>
-      <c r="Y45">
-        <v>1</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
         <v>2095</v>
       </c>
       <c r="AB45">
@@ -5692,82 +5287,73 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0</v>
+      <c r="A46" t="s">
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46">
-        <v>1002</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>77.81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
       </c>
       <c r="G46">
-        <v>77.81</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J46">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>9</v>
-      </c>
-      <c r="L46" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>7</v>
-      </c>
-      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="L46">
         <v>781033223</v>
       </c>
-      <c r="P46" t="s">
+      <c r="M46" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" t="s">
-        <v>37</v>
-      </c>
-      <c r="R46" t="s">
-        <v>37</v>
-      </c>
-      <c r="S46" s="1">
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="1">
         <v>43811</v>
       </c>
-      <c r="U46" s="2">
+      <c r="R46" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V46" t="s">
+      <c r="S46" t="s">
         <v>38</v>
       </c>
+      <c r="T46">
+        <v>41</v>
+      </c>
+      <c r="U46">
+        <v>19.95</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
       <c r="W46">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>19.95</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
         <v>1306</v>
       </c>
       <c r="AB46">
@@ -5796,82 +5382,73 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0</v>
+      <c r="A47" t="s">
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>1002</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>77.81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
       </c>
       <c r="G47">
-        <v>77.81</v>
-      </c>
-      <c r="H47" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J47">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>7</v>
-      </c>
-      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="L47">
         <v>781033223</v>
       </c>
-      <c r="P47" t="s">
+      <c r="M47" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" t="s">
-        <v>37</v>
-      </c>
-      <c r="R47" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47" s="1">
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" s="1">
         <v>43811</v>
       </c>
-      <c r="U47" s="2">
+      <c r="R47" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V47" t="s">
+      <c r="S47" t="s">
         <v>38</v>
       </c>
+      <c r="T47">
+        <v>42</v>
+      </c>
+      <c r="U47">
+        <v>18.7</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
       <c r="W47">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>18.7</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
         <v>1291</v>
       </c>
       <c r="AB47">
@@ -5900,82 +5477,73 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0</v>
+      <c r="A48" t="s">
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48">
-        <v>1002</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>77.81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>77.81</v>
-      </c>
-      <c r="H48" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J48">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>9</v>
-      </c>
-      <c r="L48" t="s">
-        <v>35</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>7</v>
-      </c>
-      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="L48">
         <v>781033223</v>
       </c>
-      <c r="P48" t="s">
+      <c r="M48" t="s">
         <v>36</v>
       </c>
-      <c r="Q48" t="s">
-        <v>37</v>
-      </c>
-      <c r="R48" t="s">
-        <v>37</v>
-      </c>
-      <c r="S48" s="1">
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" s="1">
         <v>43811</v>
       </c>
-      <c r="U48" s="2">
+      <c r="R48" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V48" t="s">
+      <c r="S48" t="s">
         <v>38</v>
       </c>
+      <c r="T48">
+        <v>43</v>
+      </c>
+      <c r="U48">
+        <v>8.65</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
       <c r="W48">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>8.65</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48">
         <v>1121</v>
       </c>
       <c r="AB48">
@@ -6004,82 +5572,73 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0</v>
+      <c r="A49" t="s">
+        <v>32</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49">
-        <v>1002</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>77.81</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>34</v>
       </c>
       <c r="G49">
-        <v>77.81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J49">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>9</v>
-      </c>
-      <c r="L49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>7</v>
-      </c>
-      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="L49">
         <v>781033223</v>
       </c>
-      <c r="P49" t="s">
+      <c r="M49" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" t="s">
-        <v>37</v>
-      </c>
-      <c r="R49" t="s">
-        <v>37</v>
-      </c>
-      <c r="S49" s="1">
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" s="1">
         <v>43811</v>
       </c>
-      <c r="U49" s="2">
+      <c r="R49" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V49" t="s">
+      <c r="S49" t="s">
         <v>38</v>
       </c>
+      <c r="T49">
+        <v>44</v>
+      </c>
+      <c r="U49">
+        <v>13.67</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
       <c r="W49">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <v>13.67</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
         <v>1607</v>
       </c>
       <c r="AB49">
@@ -6108,82 +5667,73 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0</v>
+      <c r="A50" t="s">
+        <v>32</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50">
-        <v>1002</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>77.81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
       </c>
       <c r="G50">
-        <v>77.81</v>
-      </c>
-      <c r="H50" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J50">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>9</v>
-      </c>
-      <c r="L50" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>7</v>
-      </c>
-      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="L50">
         <v>781033223</v>
       </c>
-      <c r="P50" t="s">
+      <c r="M50" t="s">
         <v>36</v>
       </c>
-      <c r="Q50" t="s">
-        <v>37</v>
-      </c>
-      <c r="R50" t="s">
-        <v>37</v>
-      </c>
-      <c r="S50" s="1">
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" s="1">
         <v>43811</v>
       </c>
-      <c r="U50" s="2">
+      <c r="R50" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V50" t="s">
+      <c r="S50" t="s">
         <v>38</v>
       </c>
+      <c r="T50">
+        <v>45</v>
+      </c>
+      <c r="U50">
+        <v>11.16</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
       <c r="W50">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>11.16</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
         <v>2362</v>
       </c>
       <c r="AB50">
@@ -6212,82 +5762,73 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0</v>
+      <c r="A51" t="s">
+        <v>32</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51">
-        <v>1002</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>77.81</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
       </c>
       <c r="G51">
-        <v>77.81</v>
-      </c>
-      <c r="H51" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J51">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>9</v>
-      </c>
-      <c r="L51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>7</v>
-      </c>
-      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="L51">
         <v>781033223</v>
       </c>
-      <c r="P51" t="s">
+      <c r="M51" t="s">
         <v>36</v>
       </c>
-      <c r="Q51" t="s">
-        <v>37</v>
-      </c>
-      <c r="R51" t="s">
-        <v>37</v>
-      </c>
-      <c r="S51" s="1">
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" s="1">
         <v>43811</v>
       </c>
-      <c r="U51" s="2">
+      <c r="R51" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V51" t="s">
+      <c r="S51" t="s">
         <v>38</v>
       </c>
+      <c r="T51">
+        <v>46</v>
+      </c>
+      <c r="U51">
+        <v>19.95</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
       <c r="W51">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="X51">
-        <v>19.95</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <v>1</v>
-      </c>
-      <c r="AA51">
         <v>2245</v>
       </c>
       <c r="AB51">
@@ -6316,82 +5857,73 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0</v>
+      <c r="A52" t="s">
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52">
-        <v>1002</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>77.81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
       </c>
       <c r="G52">
-        <v>77.81</v>
-      </c>
-      <c r="H52" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J52">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>9</v>
-      </c>
-      <c r="L52" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>7</v>
-      </c>
-      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="L52">
         <v>781033223</v>
       </c>
-      <c r="P52" t="s">
+      <c r="M52" t="s">
         <v>36</v>
       </c>
-      <c r="Q52" t="s">
-        <v>37</v>
-      </c>
-      <c r="R52" t="s">
-        <v>37</v>
-      </c>
-      <c r="S52" s="1">
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" s="1">
         <v>43811</v>
       </c>
-      <c r="U52" s="2">
+      <c r="R52" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V52" t="s">
+      <c r="S52" t="s">
         <v>38</v>
       </c>
+      <c r="T52">
+        <v>47</v>
+      </c>
+      <c r="U52">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
       <c r="W52">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-      <c r="AA52">
         <v>1504</v>
       </c>
       <c r="AB52">
@@ -6420,82 +5952,73 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0</v>
+      <c r="A53" t="s">
+        <v>32</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53">
-        <v>1002</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>77.81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
       </c>
       <c r="G53">
-        <v>77.81</v>
-      </c>
-      <c r="H53" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H53">
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J53">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>9</v>
-      </c>
-      <c r="L53" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>7</v>
-      </c>
-      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="L53">
         <v>781033223</v>
       </c>
-      <c r="P53" t="s">
+      <c r="M53" t="s">
         <v>36</v>
       </c>
-      <c r="Q53" t="s">
-        <v>37</v>
-      </c>
-      <c r="R53" t="s">
-        <v>37</v>
-      </c>
-      <c r="S53" s="1">
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53" s="1">
         <v>43811</v>
       </c>
-      <c r="U53" s="2">
+      <c r="R53" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V53" t="s">
+      <c r="S53" t="s">
         <v>38</v>
       </c>
+      <c r="T53">
+        <v>48</v>
+      </c>
+      <c r="U53">
+        <v>23.72</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
       <c r="W53">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="X53">
-        <v>23.72</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>1</v>
-      </c>
-      <c r="AA53">
         <v>1407</v>
       </c>
       <c r="AB53">
@@ -6524,82 +6047,73 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>0</v>
+      <c r="A54" t="s">
+        <v>32</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54">
-        <v>1002</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>77.81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
       </c>
       <c r="G54">
-        <v>77.81</v>
-      </c>
-      <c r="H54" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
       </c>
       <c r="I54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J54">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>9</v>
-      </c>
-      <c r="L54" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>7</v>
-      </c>
-      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="L54">
         <v>781033223</v>
       </c>
-      <c r="P54" t="s">
+      <c r="M54" t="s">
         <v>36</v>
       </c>
-      <c r="Q54" t="s">
-        <v>37</v>
-      </c>
-      <c r="R54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S54" s="1">
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="1">
         <v>43811</v>
       </c>
-      <c r="U54" s="2">
+      <c r="R54" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V54" t="s">
+      <c r="S54" t="s">
         <v>38</v>
       </c>
+      <c r="T54">
+        <v>49</v>
+      </c>
+      <c r="U54">
+        <v>27.49</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
       <c r="W54">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="X54">
-        <v>27.49</v>
-      </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
-      <c r="Z54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
         <v>2505</v>
       </c>
       <c r="AB54">
@@ -6628,82 +6142,73 @@
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0</v>
+      <c r="A55" t="s">
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55">
-        <v>1002</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>77.81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>77.81</v>
-      </c>
-      <c r="H55" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H55">
+        <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J55">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>7</v>
-      </c>
-      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="L55">
         <v>781033223</v>
       </c>
-      <c r="P55" t="s">
+      <c r="M55" t="s">
         <v>36</v>
       </c>
-      <c r="Q55" t="s">
-        <v>37</v>
-      </c>
-      <c r="R55" t="s">
-        <v>37</v>
-      </c>
-      <c r="S55" s="1">
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="1">
         <v>43811</v>
       </c>
-      <c r="U55" s="2">
+      <c r="R55" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V55" t="s">
+      <c r="S55" t="s">
         <v>38</v>
       </c>
+      <c r="T55">
+        <v>50</v>
+      </c>
+      <c r="U55">
+        <v>13.67</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
       <c r="W55">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="X55">
-        <v>13.67</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
-      <c r="AA55">
         <v>1568</v>
       </c>
       <c r="AB55">
@@ -6732,82 +6237,73 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0</v>
+      <c r="A56" t="s">
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56">
-        <v>1002</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>77.81</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
       </c>
       <c r="G56">
-        <v>77.81</v>
-      </c>
-      <c r="H56" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J56">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>9</v>
-      </c>
-      <c r="L56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>7</v>
-      </c>
-      <c r="O56">
+        <v>7</v>
+      </c>
+      <c r="L56">
         <v>781033223</v>
       </c>
-      <c r="P56" t="s">
+      <c r="M56" t="s">
         <v>36</v>
       </c>
-      <c r="Q56" t="s">
-        <v>37</v>
-      </c>
-      <c r="R56" t="s">
-        <v>37</v>
-      </c>
-      <c r="S56" s="1">
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56" s="1">
         <v>43811</v>
       </c>
-      <c r="U56" s="2">
+      <c r="R56" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V56" t="s">
+      <c r="S56" t="s">
         <v>38</v>
       </c>
+      <c r="T56">
+        <v>51</v>
+      </c>
+      <c r="U56">
+        <v>11.16</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
       <c r="W56">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="X56">
-        <v>11.16</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>1</v>
-      </c>
-      <c r="AA56">
         <v>2423</v>
       </c>
       <c r="AB56">
@@ -6836,82 +6332,73 @@
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0</v>
+      <c r="A57" t="s">
+        <v>32</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57">
-        <v>1002</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>77.81</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
       </c>
       <c r="G57">
-        <v>77.81</v>
-      </c>
-      <c r="H57" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J57">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>9</v>
-      </c>
-      <c r="L57" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>7</v>
-      </c>
-      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="L57">
         <v>781033223</v>
       </c>
-      <c r="P57" t="s">
+      <c r="M57" t="s">
         <v>36</v>
       </c>
-      <c r="Q57" t="s">
-        <v>37</v>
-      </c>
-      <c r="R57" t="s">
-        <v>37</v>
-      </c>
-      <c r="S57" s="1">
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" s="1">
         <v>43811</v>
       </c>
-      <c r="U57" s="2">
+      <c r="R57" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V57" t="s">
+      <c r="S57" t="s">
         <v>38</v>
       </c>
+      <c r="T57">
+        <v>52</v>
+      </c>
+      <c r="U57">
+        <v>18.07</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
       <c r="W57">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <v>18.07</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>1</v>
-      </c>
-      <c r="AA57">
         <v>1649</v>
       </c>
       <c r="AB57">
@@ -6940,82 +6427,73 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>0</v>
+      <c r="A58" t="s">
+        <v>32</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58">
-        <v>1002</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>77.81</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
       </c>
       <c r="G58">
-        <v>77.81</v>
-      </c>
-      <c r="H58" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J58">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>9</v>
-      </c>
-      <c r="L58" t="s">
-        <v>35</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>7</v>
-      </c>
-      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="L58">
         <v>781033223</v>
       </c>
-      <c r="P58" t="s">
+      <c r="M58" t="s">
         <v>36</v>
       </c>
-      <c r="Q58" t="s">
-        <v>37</v>
-      </c>
-      <c r="R58" t="s">
-        <v>37</v>
-      </c>
-      <c r="S58" s="1">
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" s="1">
         <v>43811</v>
       </c>
-      <c r="U58" s="2">
+      <c r="R58" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V58" t="s">
+      <c r="S58" t="s">
         <v>38</v>
       </c>
+      <c r="T58">
+        <v>53</v>
+      </c>
+      <c r="U58">
+        <v>24.35</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
       <c r="W58">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>24.35</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
-      <c r="AA58">
         <v>1211</v>
       </c>
       <c r="AB58">
@@ -7044,82 +6522,73 @@
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>0</v>
+      <c r="A59" t="s">
+        <v>32</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59">
-        <v>1002</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>77.81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
       </c>
       <c r="G59">
-        <v>77.81</v>
-      </c>
-      <c r="H59" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J59">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>9</v>
-      </c>
-      <c r="L59" t="s">
-        <v>35</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>7</v>
-      </c>
-      <c r="O59">
+        <v>7</v>
+      </c>
+      <c r="L59">
         <v>781033223</v>
       </c>
-      <c r="P59" t="s">
+      <c r="M59" t="s">
         <v>36</v>
       </c>
-      <c r="Q59" t="s">
-        <v>37</v>
-      </c>
-      <c r="R59" t="s">
-        <v>37</v>
-      </c>
-      <c r="S59" s="1">
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="1">
         <v>43811</v>
       </c>
-      <c r="U59" s="2">
+      <c r="R59" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V59" t="s">
+      <c r="S59" t="s">
         <v>38</v>
       </c>
+      <c r="T59">
+        <v>54</v>
+      </c>
+      <c r="U59">
+        <v>26.86</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
       <c r="W59">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="X59">
-        <v>26.86</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <v>1</v>
-      </c>
-      <c r="AA59">
         <v>2373</v>
       </c>
       <c r="AB59">
@@ -7148,82 +6617,73 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0</v>
+      <c r="A60" t="s">
+        <v>32</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60">
-        <v>1002</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>77.81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
       </c>
       <c r="G60">
-        <v>77.81</v>
-      </c>
-      <c r="H60" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J60">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>9</v>
-      </c>
-      <c r="L60" t="s">
-        <v>35</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>7</v>
-      </c>
-      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="L60">
         <v>781033223</v>
       </c>
-      <c r="P60" t="s">
+      <c r="M60" t="s">
         <v>36</v>
       </c>
-      <c r="Q60" t="s">
-        <v>37</v>
-      </c>
-      <c r="R60" t="s">
-        <v>37</v>
-      </c>
-      <c r="S60" s="1">
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="1">
         <v>43811</v>
       </c>
-      <c r="U60" s="2">
+      <c r="R60" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V60" t="s">
+      <c r="S60" t="s">
         <v>38</v>
       </c>
+      <c r="T60">
+        <v>55</v>
+      </c>
+      <c r="U60">
+        <v>29.37</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
       <c r="W60">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="X60">
-        <v>29.37</v>
-      </c>
-      <c r="Y60">
-        <v>1</v>
-      </c>
-      <c r="Z60">
-        <v>1</v>
-      </c>
-      <c r="AA60">
         <v>1259</v>
       </c>
       <c r="AB60">
@@ -7252,82 +6712,73 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>0</v>
+      <c r="A61" t="s">
+        <v>32</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61">
-        <v>1002</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>77.81</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
       </c>
       <c r="G61">
-        <v>77.81</v>
-      </c>
-      <c r="H61" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J61">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>9</v>
-      </c>
-      <c r="L61" t="s">
-        <v>35</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>7</v>
-      </c>
-      <c r="O61">
+        <v>7</v>
+      </c>
+      <c r="L61">
         <v>781033223</v>
       </c>
-      <c r="P61" t="s">
+      <c r="M61" t="s">
         <v>36</v>
       </c>
-      <c r="Q61" t="s">
-        <v>37</v>
-      </c>
-      <c r="R61" t="s">
-        <v>37</v>
-      </c>
-      <c r="S61" s="1">
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" s="1">
         <v>43811</v>
       </c>
-      <c r="U61" s="2">
+      <c r="R61" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V61" t="s">
+      <c r="S61" t="s">
         <v>38</v>
       </c>
+      <c r="T61">
+        <v>56</v>
+      </c>
+      <c r="U61">
+        <v>28.12</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
       <c r="W61">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="X61">
-        <v>28.12</v>
-      </c>
-      <c r="Y61">
-        <v>2</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
         <v>5754</v>
       </c>
       <c r="AB61">
@@ -7356,82 +6807,73 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0</v>
+      <c r="A62" t="s">
+        <v>32</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62">
-        <v>1002</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>77.81</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
       </c>
       <c r="G62">
-        <v>77.81</v>
-      </c>
-      <c r="H62" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J62">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>9</v>
-      </c>
-      <c r="L62" t="s">
-        <v>35</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>7</v>
-      </c>
-      <c r="O62">
+        <v>7</v>
+      </c>
+      <c r="L62">
         <v>781033223</v>
       </c>
-      <c r="P62" t="s">
+      <c r="M62" t="s">
         <v>36</v>
       </c>
-      <c r="Q62" t="s">
-        <v>37</v>
-      </c>
-      <c r="R62" t="s">
-        <v>37</v>
-      </c>
-      <c r="S62" s="1">
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P62" s="1">
         <v>43811</v>
       </c>
-      <c r="U62" s="2">
+      <c r="R62" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V62" t="s">
+      <c r="S62" t="s">
         <v>38</v>
       </c>
+      <c r="T62">
+        <v>57</v>
+      </c>
+      <c r="U62">
+        <v>25.6</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
       <c r="W62">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="X62">
-        <v>25.6</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <v>1</v>
-      </c>
-      <c r="AA62">
         <v>1222</v>
       </c>
       <c r="AB62">
@@ -7460,82 +6902,73 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>0</v>
+      <c r="A63" t="s">
+        <v>32</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63">
-        <v>1002</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>77.81</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>77.81</v>
-      </c>
-      <c r="H63" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
       </c>
       <c r="I63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J63">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>9</v>
-      </c>
-      <c r="L63" t="s">
-        <v>35</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>7</v>
-      </c>
-      <c r="O63">
+        <v>7</v>
+      </c>
+      <c r="L63">
         <v>781033223</v>
       </c>
-      <c r="P63" t="s">
+      <c r="M63" t="s">
         <v>36</v>
       </c>
-      <c r="Q63" t="s">
-        <v>37</v>
-      </c>
-      <c r="R63" t="s">
-        <v>37</v>
-      </c>
-      <c r="S63" s="1">
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" s="1">
         <v>43811</v>
       </c>
-      <c r="U63" s="2">
+      <c r="R63" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V63" t="s">
+      <c r="S63" t="s">
         <v>38</v>
       </c>
+      <c r="T63">
+        <v>58</v>
+      </c>
+      <c r="U63">
+        <v>25.6</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
       <c r="W63">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="X63">
-        <v>25.6</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>1</v>
-      </c>
-      <c r="AA63">
         <v>1368</v>
       </c>
       <c r="AB63">
@@ -7564,82 +6997,73 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>0</v>
+      <c r="A64" t="s">
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64">
-        <v>1002</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>77.81</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>77.81</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
       </c>
       <c r="I64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J64">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>9</v>
-      </c>
-      <c r="L64" t="s">
-        <v>35</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>7</v>
-      </c>
-      <c r="O64">
+        <v>7</v>
+      </c>
+      <c r="L64">
         <v>781033223</v>
       </c>
-      <c r="P64" t="s">
+      <c r="M64" t="s">
         <v>36</v>
       </c>
-      <c r="Q64" t="s">
-        <v>37</v>
-      </c>
-      <c r="R64" t="s">
-        <v>37</v>
-      </c>
-      <c r="S64" s="1">
+      <c r="N64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" s="1">
         <v>43811</v>
       </c>
-      <c r="U64" s="2">
+      <c r="R64" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V64" t="s">
+      <c r="S64" t="s">
         <v>38</v>
       </c>
+      <c r="T64">
+        <v>59</v>
+      </c>
+      <c r="U64">
+        <v>28.12</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
       <c r="W64">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="X64">
-        <v>28.12</v>
-      </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-      <c r="Z64">
-        <v>1</v>
-      </c>
-      <c r="AA64">
         <v>1398</v>
       </c>
       <c r="AB64">
@@ -7668,82 +7092,73 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>0</v>
+      <c r="A65" t="s">
+        <v>32</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65">
-        <v>1002</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>77.81</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
       </c>
       <c r="G65">
-        <v>77.81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
       </c>
       <c r="I65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J65">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>9</v>
-      </c>
-      <c r="L65" t="s">
-        <v>35</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>7</v>
-      </c>
-      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="L65">
         <v>781033223</v>
       </c>
-      <c r="P65" t="s">
+      <c r="M65" t="s">
         <v>36</v>
       </c>
-      <c r="Q65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R65" t="s">
-        <v>37</v>
-      </c>
-      <c r="S65" s="1">
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65" t="s">
+        <v>37</v>
+      </c>
+      <c r="P65" s="1">
         <v>43811</v>
       </c>
-      <c r="U65" s="2">
+      <c r="R65" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V65" t="s">
+      <c r="S65" t="s">
         <v>38</v>
       </c>
+      <c r="T65">
+        <v>60</v>
+      </c>
+      <c r="U65">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
       <c r="W65">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="X65">
-        <v>19.329999999999998</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>1</v>
-      </c>
-      <c r="AA65">
         <v>1391</v>
       </c>
       <c r="AB65">
@@ -7772,82 +7187,73 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>0</v>
+      <c r="A66" t="s">
+        <v>32</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66">
-        <v>1002</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>77.81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
       </c>
       <c r="G66">
-        <v>77.81</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J66">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>9</v>
-      </c>
-      <c r="L66" t="s">
-        <v>35</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>7</v>
-      </c>
-      <c r="O66">
+        <v>7</v>
+      </c>
+      <c r="L66">
         <v>781033223</v>
       </c>
-      <c r="P66" t="s">
+      <c r="M66" t="s">
         <v>36</v>
       </c>
-      <c r="Q66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R66" t="s">
-        <v>37</v>
-      </c>
-      <c r="S66" s="1">
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="1">
         <v>43811</v>
       </c>
-      <c r="U66" s="2">
+      <c r="R66" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V66" t="s">
+      <c r="S66" t="s">
         <v>38</v>
       </c>
+      <c r="T66">
+        <v>61</v>
+      </c>
+      <c r="U66">
+        <v>10.53</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
       <c r="W66">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="X66">
-        <v>10.53</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>1</v>
-      </c>
-      <c r="AA66">
         <v>2306</v>
       </c>
       <c r="AB66">
@@ -7876,82 +7282,73 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>0</v>
+      <c r="A67" t="s">
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67">
-        <v>1002</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>77.81</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>77.81</v>
-      </c>
-      <c r="H67" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J67">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>9</v>
-      </c>
-      <c r="L67" t="s">
-        <v>35</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>7</v>
-      </c>
-      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="L67">
         <v>781033223</v>
       </c>
-      <c r="P67" t="s">
+      <c r="M67" t="s">
         <v>36</v>
       </c>
-      <c r="Q67" t="s">
-        <v>37</v>
-      </c>
-      <c r="R67" t="s">
-        <v>37</v>
-      </c>
-      <c r="S67" s="1">
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" s="1">
         <v>43811</v>
       </c>
-      <c r="U67" s="2">
+      <c r="R67" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V67" t="s">
+      <c r="S67" t="s">
         <v>38</v>
       </c>
+      <c r="T67">
+        <v>62</v>
+      </c>
+      <c r="U67">
+        <v>13.05</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
       <c r="W67">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="X67">
-        <v>13.05</v>
-      </c>
-      <c r="Y67">
-        <v>1</v>
-      </c>
-      <c r="Z67">
-        <v>1</v>
-      </c>
-      <c r="AA67">
         <v>2096</v>
       </c>
       <c r="AB67">
@@ -7980,82 +7377,73 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>0</v>
+      <c r="A68" t="s">
+        <v>32</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68">
-        <v>1002</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>77.81</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>77.81</v>
-      </c>
-      <c r="H68" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J68">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>9</v>
-      </c>
-      <c r="L68" t="s">
-        <v>35</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>7</v>
-      </c>
-      <c r="O68">
+        <v>7</v>
+      </c>
+      <c r="L68">
         <v>781033223</v>
       </c>
-      <c r="P68" t="s">
+      <c r="M68" t="s">
         <v>36</v>
       </c>
-      <c r="Q68" t="s">
-        <v>37</v>
-      </c>
-      <c r="R68" t="s">
-        <v>37</v>
-      </c>
-      <c r="S68" s="1">
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" s="1">
         <v>43811</v>
       </c>
-      <c r="U68" s="2">
+      <c r="R68" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V68" t="s">
+      <c r="S68" t="s">
         <v>38</v>
       </c>
+      <c r="T68">
+        <v>63</v>
+      </c>
+      <c r="U68">
+        <v>29.37</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
       <c r="W68">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="X68">
-        <v>29.37</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-      <c r="Z68">
-        <v>1</v>
-      </c>
-      <c r="AA68">
         <v>1778</v>
       </c>
       <c r="AB68">
@@ -8084,82 +7472,73 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>0</v>
+      <c r="A69" t="s">
+        <v>32</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69">
-        <v>1002</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>77.81</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
       </c>
       <c r="G69">
-        <v>77.81</v>
-      </c>
-      <c r="H69" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H69">
+        <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J69">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>9</v>
-      </c>
-      <c r="L69" t="s">
-        <v>35</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>7</v>
-      </c>
-      <c r="O69">
+        <v>7</v>
+      </c>
+      <c r="L69">
         <v>781033223</v>
       </c>
-      <c r="P69" t="s">
+      <c r="M69" t="s">
         <v>36</v>
       </c>
-      <c r="Q69" t="s">
-        <v>37</v>
-      </c>
-      <c r="R69" t="s">
-        <v>37</v>
-      </c>
-      <c r="S69" s="1">
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" s="1">
         <v>43811</v>
       </c>
-      <c r="U69" s="2">
+      <c r="R69" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V69" t="s">
+      <c r="S69" t="s">
         <v>38</v>
       </c>
+      <c r="T69">
+        <v>64</v>
+      </c>
+      <c r="U69">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
       <c r="W69">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="X69">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>1</v>
-      </c>
-      <c r="AA69">
         <v>1458</v>
       </c>
       <c r="AB69">
@@ -8188,82 +7567,73 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>0</v>
+      <c r="A70" t="s">
+        <v>32</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70">
-        <v>1002</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>77.81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
       </c>
       <c r="G70">
-        <v>77.81</v>
-      </c>
-      <c r="H70" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J70">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>9</v>
-      </c>
-      <c r="L70" t="s">
-        <v>35</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>7</v>
-      </c>
-      <c r="O70">
+        <v>7</v>
+      </c>
+      <c r="L70">
         <v>781033223</v>
       </c>
-      <c r="P70" t="s">
+      <c r="M70" t="s">
         <v>36</v>
       </c>
-      <c r="Q70" t="s">
-        <v>37</v>
-      </c>
-      <c r="R70" t="s">
-        <v>37</v>
-      </c>
-      <c r="S70" s="1">
+      <c r="N70" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" t="s">
+        <v>37</v>
+      </c>
+      <c r="P70" s="1">
         <v>43811</v>
       </c>
-      <c r="U70" s="2">
+      <c r="R70" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V70" t="s">
+      <c r="S70" t="s">
         <v>38</v>
       </c>
+      <c r="T70">
+        <v>65</v>
+      </c>
+      <c r="U70">
+        <v>13.05</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
       <c r="W70">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="X70">
-        <v>13.05</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>1</v>
-      </c>
-      <c r="AA70">
         <v>988</v>
       </c>
       <c r="AB70">
@@ -8292,82 +7662,73 @@
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>0</v>
+      <c r="A71" t="s">
+        <v>32</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71">
-        <v>1002</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>77.81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
       </c>
       <c r="G71">
-        <v>77.81</v>
-      </c>
-      <c r="H71" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J71">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>9</v>
-      </c>
-      <c r="L71" t="s">
-        <v>35</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>7</v>
-      </c>
-      <c r="O71">
+        <v>7</v>
+      </c>
+      <c r="L71">
         <v>781033223</v>
       </c>
-      <c r="P71" t="s">
+      <c r="M71" t="s">
         <v>36</v>
       </c>
-      <c r="Q71" t="s">
-        <v>37</v>
-      </c>
-      <c r="R71" t="s">
-        <v>37</v>
-      </c>
-      <c r="S71" s="1">
+      <c r="N71" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71" t="s">
+        <v>37</v>
+      </c>
+      <c r="P71" s="1">
         <v>43811</v>
       </c>
-      <c r="U71" s="2">
+      <c r="R71" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V71" t="s">
+      <c r="S71" t="s">
         <v>38</v>
       </c>
+      <c r="T71">
+        <v>66</v>
+      </c>
+      <c r="U71">
+        <v>10.53</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
       <c r="W71">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="X71">
-        <v>10.53</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
-      <c r="AA71">
         <v>1060</v>
       </c>
       <c r="AB71">
@@ -8396,82 +7757,73 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>0</v>
+      <c r="A72" t="s">
+        <v>32</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72">
-        <v>1002</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>77.81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
       </c>
       <c r="G72">
-        <v>77.81</v>
-      </c>
-      <c r="H72" t="s">
-        <v>33</v>
+        <v>60.01</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J72">
-        <v>60.01</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>9</v>
-      </c>
-      <c r="L72" t="s">
-        <v>35</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>7</v>
-      </c>
-      <c r="O72">
+        <v>7</v>
+      </c>
+      <c r="L72">
         <v>781033223</v>
       </c>
-      <c r="P72" t="s">
+      <c r="M72" t="s">
         <v>36</v>
       </c>
-      <c r="Q72" t="s">
-        <v>37</v>
-      </c>
-      <c r="R72" t="s">
-        <v>37</v>
-      </c>
-      <c r="S72" s="1">
+      <c r="N72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" s="1">
         <v>43811</v>
       </c>
-      <c r="U72" s="2">
+      <c r="R72" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="V72" t="s">
+      <c r="S72" t="s">
         <v>38</v>
       </c>
+      <c r="T72">
+        <v>67</v>
+      </c>
+      <c r="U72">
+        <v>21.84</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
       <c r="W72">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="X72">
-        <v>21.84</v>
-      </c>
-      <c r="Y72">
-        <v>1</v>
-      </c>
-      <c r="Z72">
-        <v>1</v>
-      </c>
-      <c r="AA72">
         <v>1591</v>
       </c>
       <c r="AB72">

--- a/data/social/S_1002.xlsx
+++ b/data/social/S_1002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A3848-94AD-074B-B6CD-FEF0E214755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809E5E1-4D3E-8C49-8D78-31E275236DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social_1002" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="42">
   <si>
     <t>ExperimentName</t>
   </si>
@@ -991,82 +991,91 @@
   <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
       <c r="AB1" t="s">
@@ -1155,16 +1164,25 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
@@ -1253,16 +1271,25 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
         <v>41</v>
       </c>
-      <c r="V3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
@@ -1351,16 +1378,25 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
         <v>41</v>
       </c>
-      <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
@@ -1449,16 +1485,25 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>41</v>
       </c>
-      <c r="V5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
@@ -1487,73 +1532,82 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>1002</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>77.81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>60.01</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>781033223</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1">
         <v>43811</v>
       </c>
-      <c r="R6" s="2">
+      <c r="U6" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>38</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>21.21</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>6908</v>
       </c>
       <c r="AB6">
@@ -1582,73 +1636,82 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>1002</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>77.81</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>60.01</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>781033223</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="1">
         <v>43811</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>9.91</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>1917</v>
       </c>
       <c r="AB7">
@@ -1677,73 +1740,82 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
+      <c r="E8">
         <v>1002</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>77.81</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>60.01</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>781033223</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1">
         <v>43811</v>
       </c>
-      <c r="R8" s="2">
+      <c r="U8" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>38</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>19.95</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>1418</v>
       </c>
       <c r="AB8">
@@ -1772,73 +1844,82 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="E9">
         <v>1002</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>77.81</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>60.01</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>781033223</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="1">
         <v>43811</v>
       </c>
-      <c r="R9" s="2">
+      <c r="U9" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>38</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>22.47</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>993</v>
       </c>
       <c r="AB9">
@@ -1867,73 +1948,82 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <v>1002</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>77.81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>60.01</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>781033223</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1">
         <v>43811</v>
       </c>
-      <c r="R10" s="2">
+      <c r="U10" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>38</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>12.42</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
         <v>1728</v>
       </c>
       <c r="AB10">
@@ -1962,73 +2052,82 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <v>1002</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>77.81</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>60.01</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>781033223</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="1">
         <v>43811</v>
       </c>
-      <c r="R11" s="2">
+      <c r="U11" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>13.67</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>1362</v>
       </c>
       <c r="AB11">
@@ -2057,73 +2156,82 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <v>1002</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>77.81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>60.01</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>781033223</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>36</v>
       </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="1">
         <v>43811</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>7</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>18.7</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>2445</v>
       </c>
       <c r="AB12">
@@ -2152,73 +2260,82 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <v>1002</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>77.81</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>34</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>60.01</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>7</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>781033223</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1">
         <v>43811</v>
       </c>
-      <c r="R13" s="2">
+      <c r="U13" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>38</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>8</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>12.42</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>3495</v>
       </c>
       <c r="AB13">
@@ -2247,73 +2364,82 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <v>1002</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>77.81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>60.01</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>7</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>781033223</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1">
         <v>43811</v>
       </c>
-      <c r="R14" s="2">
+      <c r="U14" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>38</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>9</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>14.93</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>1499</v>
       </c>
       <c r="AB14">
@@ -2342,73 +2468,82 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <v>1002</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>77.81</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>34</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>60.01</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>7</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>781033223</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>36</v>
       </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1">
         <v>43811</v>
       </c>
-      <c r="R15" s="2">
+      <c r="U15" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>38</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>17.440000000000001</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
         <v>2573</v>
       </c>
       <c r="AB15">
@@ -2437,73 +2572,82 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <v>1002</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>77.81</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>34</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>60.01</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>7</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>781033223</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>36</v>
       </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="1">
         <v>43811</v>
       </c>
-      <c r="R16" s="2">
+      <c r="U16" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>38</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>11</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>27.49</v>
       </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
         <v>1357</v>
       </c>
       <c r="AB16">
@@ -2532,73 +2676,82 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <v>1002</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>77.81</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>60.01</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>7</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>781033223</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>36</v>
       </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="1">
         <v>43811</v>
       </c>
-      <c r="R17" s="2">
+      <c r="U17" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>38</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>12</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>16.190000000000001</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>1419</v>
       </c>
       <c r="AB17">
@@ -2627,73 +2780,82 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <v>1002</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>77.81</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>60.01</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>35</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>7</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>781033223</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>36</v>
       </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="1">
         <v>43811</v>
       </c>
-      <c r="R18" s="2">
+      <c r="U18" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S18" t="s">
+      <c r="V18" t="s">
         <v>38</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>13</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>14.93</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
         <v>1061</v>
       </c>
       <c r="AB18">
@@ -2722,73 +2884,82 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <v>1002</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>77.81</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>60.01</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>9</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>35</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>7</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>781033223</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>36</v>
       </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="Q19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="1">
         <v>43811</v>
       </c>
-      <c r="R19" s="2">
+      <c r="U19" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" t="s">
         <v>38</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>14</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>9.91</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
         <v>4213</v>
       </c>
       <c r="AB19">
@@ -2817,73 +2988,82 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <v>1002</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>77.81</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>60.01</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>35</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>7</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>781033223</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>36</v>
       </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="1">
         <v>43811</v>
       </c>
-      <c r="R20" s="2">
+      <c r="U20" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S20" t="s">
+      <c r="V20" t="s">
         <v>38</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>15</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>21.21</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>1424</v>
       </c>
       <c r="AB20">
@@ -2912,73 +3092,82 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <v>1002</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>77.81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>34</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>60.01</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>35</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>7</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>781033223</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>36</v>
       </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="1">
         <v>43811</v>
       </c>
-      <c r="R21" s="2">
+      <c r="U21" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" t="s">
         <v>38</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>16</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>8.65</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
         <v>1348</v>
       </c>
       <c r="AB21">
@@ -3007,73 +3196,82 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <v>1002</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>77.81</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>34</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>60.01</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>9</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>35</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>781033223</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="s">
         <v>36</v>
       </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="1">
         <v>43811</v>
       </c>
-      <c r="R22" s="2">
+      <c r="U22" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" t="s">
         <v>38</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>17</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>24.98</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>1565</v>
       </c>
       <c r="AB22">
@@ -3102,73 +3300,82 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <v>1002</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>77.81</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>34</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>60.01</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>35</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>7</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>781033223</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>36</v>
       </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="1">
         <v>43811</v>
       </c>
-      <c r="R23" s="2">
+      <c r="U23" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>38</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>18</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>16.190000000000001</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>1030</v>
       </c>
       <c r="AB23">
@@ -3197,73 +3404,82 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <v>1002</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>77.81</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>60.01</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>35</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>7</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>781033223</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>36</v>
       </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="1">
         <v>43811</v>
       </c>
-      <c r="R24" s="2">
+      <c r="U24" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S24" t="s">
+      <c r="V24" t="s">
         <v>38</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>19</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>28.74</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
         <v>1876</v>
       </c>
       <c r="AB24">
@@ -3292,73 +3508,82 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <v>1002</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>77.81</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>34</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>60.01</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>35</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>7</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>781033223</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>36</v>
       </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="1">
         <v>43811</v>
       </c>
-      <c r="R25" s="2">
+      <c r="U25" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S25" t="s">
+      <c r="V25" t="s">
         <v>38</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>20</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>28.74</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>2765</v>
       </c>
       <c r="AB25">
@@ -3387,73 +3612,82 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <v>1002</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>77.81</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>34</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>60.01</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>9</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>35</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>7</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>781033223</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>36</v>
       </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="1">
         <v>43811</v>
       </c>
-      <c r="R26" s="2">
+      <c r="U26" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S26" t="s">
+      <c r="V26" t="s">
         <v>38</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>21</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>17.440000000000001</v>
       </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>1910</v>
       </c>
       <c r="AB26">
@@ -3482,73 +3716,82 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <v>1002</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>77.81</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>33</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>34</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>60.01</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>35</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>7</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>781033223</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>36</v>
       </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="1">
         <v>43811</v>
       </c>
-      <c r="R27" s="2">
+      <c r="U27" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S27" t="s">
+      <c r="V27" t="s">
         <v>38</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>22</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>27.49</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
         <v>1485</v>
       </c>
       <c r="AB27">
@@ -3577,73 +3820,82 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="E28">
         <v>1002</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>77.81</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>34</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>60.01</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>35</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>7</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>781033223</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>36</v>
       </c>
-      <c r="N28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="1">
         <v>43811</v>
       </c>
-      <c r="R28" s="2">
+      <c r="U28" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S28" t="s">
+      <c r="V28" t="s">
         <v>38</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>23</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>22.47</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>1319</v>
       </c>
       <c r="AB28">
@@ -3672,73 +3924,82 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <v>1002</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>77.81</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>34</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>60.01</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>7</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>781033223</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>36</v>
       </c>
-      <c r="N29" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="1">
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="1">
         <v>43811</v>
       </c>
-      <c r="R29" s="2">
+      <c r="U29" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S29" t="s">
+      <c r="V29" t="s">
         <v>38</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>24</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>28.74</v>
       </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <v>1594</v>
       </c>
       <c r="AB29">
@@ -3767,73 +4028,82 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <v>1002</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>77.81</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>34</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>60.01</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>9</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>35</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>7</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>781033223</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>36</v>
       </c>
-      <c r="N30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="1">
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="1">
         <v>43811</v>
       </c>
-      <c r="R30" s="2">
+      <c r="U30" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S30" t="s">
+      <c r="V30" t="s">
         <v>38</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>25</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>18.7</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
         <v>1608</v>
       </c>
       <c r="AB30">
@@ -3862,73 +4132,82 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <v>1002</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>77.81</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>60.01</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>35</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>7</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>781033223</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>36</v>
       </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="1">
         <v>43811</v>
       </c>
-      <c r="R31" s="2">
+      <c r="U31" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>38</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>26</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <v>23.72</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
         <v>2856</v>
       </c>
       <c r="AB31">
@@ -3957,73 +4236,82 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <v>1002</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>77.81</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>34</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>60.01</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>35</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>7</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>781033223</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>36</v>
       </c>
-      <c r="N32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="Q32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="1">
         <v>43811</v>
       </c>
-      <c r="R32" s="2">
+      <c r="U32" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S32" t="s">
+      <c r="V32" t="s">
         <v>38</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>27</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <v>17.440000000000001</v>
       </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
         <v>1555</v>
       </c>
       <c r="AB32">
@@ -4052,73 +4340,82 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <v>1002</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>77.81</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>34</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>60.01</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>35</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>7</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>781033223</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>36</v>
       </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="1">
         <v>43811</v>
       </c>
-      <c r="R33" s="2">
+      <c r="U33" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S33" t="s">
+      <c r="V33" t="s">
         <v>38</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>28</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>26.23</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
         <v>1022</v>
       </c>
       <c r="AB33">
@@ -4147,73 +4444,82 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <v>1002</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>77.81</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>60.01</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>9</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>35</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>7</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>781033223</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>36</v>
       </c>
-      <c r="N34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="1">
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="1">
         <v>43811</v>
       </c>
-      <c r="R34" s="2">
+      <c r="U34" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S34" t="s">
+      <c r="V34" t="s">
         <v>38</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>29</v>
       </c>
-      <c r="U34">
+      <c r="X34">
         <v>12.42</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>2182</v>
       </c>
       <c r="AB34">
@@ -4242,73 +4548,82 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <v>1002</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>77.81</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>34</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>60.01</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>9</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>35</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>7</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>781033223</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>36</v>
       </c>
-      <c r="N35" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="Q35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="1">
         <v>43811</v>
       </c>
-      <c r="R35" s="2">
+      <c r="U35" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S35" t="s">
+      <c r="V35" t="s">
         <v>38</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>30</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>9.91</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
         <v>1019</v>
       </c>
       <c r="AB35">
@@ -4337,73 +4652,82 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <v>1002</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>77.81</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>34</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>60.01</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>9</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>35</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>7</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>781033223</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>36</v>
       </c>
-      <c r="N36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="Q36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="1">
         <v>43811</v>
       </c>
-      <c r="R36" s="2">
+      <c r="U36" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S36" t="s">
+      <c r="V36" t="s">
         <v>38</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>31</v>
       </c>
-      <c r="U36">
+      <c r="X36">
         <v>21.21</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>1714</v>
       </c>
       <c r="AB36">
@@ -4432,73 +4756,82 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <v>1002</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>77.81</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>34</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>60.01</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>9</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>35</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>7</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>781033223</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>36</v>
       </c>
-      <c r="N37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="1">
+      <c r="Q37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="1">
         <v>43811</v>
       </c>
-      <c r="R37" s="2">
+      <c r="U37" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S37" t="s">
+      <c r="V37" t="s">
         <v>38</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>32</v>
       </c>
-      <c r="U37">
+      <c r="X37">
         <v>23.72</v>
       </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
         <v>1546</v>
       </c>
       <c r="AB37">
@@ -4527,73 +4860,82 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <v>1002</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>77.81</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>34</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>60.01</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>35</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>7</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>781033223</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>36</v>
       </c>
-      <c r="N38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="1">
+      <c r="Q38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="1">
         <v>43811</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S38" t="s">
+      <c r="V38" t="s">
         <v>38</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>33</v>
       </c>
-      <c r="U38">
+      <c r="X38">
         <v>22.47</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
         <v>1992</v>
       </c>
       <c r="AB38">
@@ -4622,73 +4964,82 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <v>1002</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>77.81</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>34</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>60.01</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>9</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>35</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>7</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>781033223</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>36</v>
       </c>
-      <c r="N39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="Q39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="1">
         <v>43811</v>
       </c>
-      <c r="R39" s="2">
+      <c r="U39" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S39" t="s">
+      <c r="V39" t="s">
         <v>38</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>34</v>
       </c>
-      <c r="U39">
+      <c r="X39">
         <v>8.65</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
         <v>2860</v>
       </c>
       <c r="AB39">
@@ -4717,73 +5068,82 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>32</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <v>1002</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>77.81</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>33</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>34</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>60.01</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>35</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>7</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>781033223</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>36</v>
       </c>
-      <c r="N40" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="Q40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="1">
         <v>43811</v>
       </c>
-      <c r="R40" s="2">
+      <c r="U40" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S40" t="s">
+      <c r="V40" t="s">
         <v>38</v>
       </c>
-      <c r="T40">
+      <c r="W40">
         <v>35</v>
       </c>
-      <c r="U40">
+      <c r="X40">
         <v>24.98</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
         <v>1389</v>
       </c>
       <c r="AB40">
@@ -4812,73 +5172,82 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <v>1002</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>77.81</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>34</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>60.01</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>35</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>7</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>781033223</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O41" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="Q41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="1">
         <v>43811</v>
       </c>
-      <c r="R41" s="2">
+      <c r="U41" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S41" t="s">
+      <c r="V41" t="s">
         <v>38</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>36</v>
       </c>
-      <c r="U41">
+      <c r="X41">
         <v>26.23</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
         <v>1274</v>
       </c>
       <c r="AB41">
@@ -4907,73 +5276,82 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <v>1002</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>77.81</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>33</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>34</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>60.01</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>9</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>35</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>7</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>781033223</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>36</v>
       </c>
-      <c r="N42" t="s">
-        <v>37</v>
-      </c>
-      <c r="O42" t="s">
-        <v>37</v>
-      </c>
-      <c r="P42" s="1">
+      <c r="Q42" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="1">
         <v>43811</v>
       </c>
-      <c r="R42" s="2">
+      <c r="U42" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S42" t="s">
+      <c r="V42" t="s">
         <v>38</v>
       </c>
-      <c r="T42">
-        <v>37</v>
-      </c>
-      <c r="U42">
+      <c r="W42">
+        <v>37</v>
+      </c>
+      <c r="X42">
         <v>26.23</v>
       </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
         <v>1287</v>
       </c>
       <c r="AB42">
@@ -5002,73 +5380,82 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <v>1002</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>77.81</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>34</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>60.01</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>9</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>35</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>7</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>781033223</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
         <v>36</v>
       </c>
-      <c r="N43" t="s">
-        <v>37</v>
-      </c>
-      <c r="O43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="Q43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="1">
         <v>43811</v>
       </c>
-      <c r="R43" s="2">
+      <c r="U43" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S43" t="s">
+      <c r="V43" t="s">
         <v>38</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>38</v>
       </c>
-      <c r="U43">
+      <c r="X43">
         <v>14.93</v>
       </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>1319</v>
       </c>
       <c r="AB43">
@@ -5097,73 +5484,82 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <v>1002</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>77.81</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>34</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>60.01</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>35</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>781033223</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>36</v>
       </c>
-      <c r="N44" t="s">
-        <v>37</v>
-      </c>
-      <c r="O44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P44" s="1">
+      <c r="Q44" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="1">
         <v>43811</v>
       </c>
-      <c r="R44" s="2">
+      <c r="U44" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S44" t="s">
+      <c r="V44" t="s">
         <v>38</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>39</v>
       </c>
-      <c r="U44">
+      <c r="X44">
         <v>24.98</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
         <v>1489</v>
       </c>
       <c r="AB44">
@@ -5192,73 +5588,82 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
         <v>32</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <v>1002</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>77.81</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>33</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>34</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>60.01</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>9</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>35</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>7</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>781033223</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>36</v>
       </c>
-      <c r="N45" t="s">
-        <v>37</v>
-      </c>
-      <c r="O45" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" s="1">
+      <c r="Q45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" s="1">
         <v>43811</v>
       </c>
-      <c r="R45" s="2">
+      <c r="U45" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S45" t="s">
+      <c r="V45" t="s">
         <v>38</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>40</v>
       </c>
-      <c r="U45">
+      <c r="X45">
         <v>11.16</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
         <v>2095</v>
       </c>
       <c r="AB45">
@@ -5287,73 +5692,82 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <v>1002</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>77.81</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>33</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>34</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>60.01</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>9</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>35</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>7</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>781033223</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>36</v>
       </c>
-      <c r="N46" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P46" s="1">
+      <c r="Q46" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="1">
         <v>43811</v>
       </c>
-      <c r="R46" s="2">
+      <c r="U46" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S46" t="s">
+      <c r="V46" t="s">
         <v>38</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>41</v>
       </c>
-      <c r="U46">
+      <c r="X46">
         <v>19.95</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
         <v>1306</v>
       </c>
       <c r="AB46">
@@ -5382,73 +5796,82 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
         <v>32</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <v>1002</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>77.81</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>34</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>60.01</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>9</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>35</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>7</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>781033223</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="s">
         <v>36</v>
       </c>
-      <c r="N47" t="s">
-        <v>37</v>
-      </c>
-      <c r="O47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="1">
+      <c r="Q47" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="1">
         <v>43811</v>
       </c>
-      <c r="R47" s="2">
+      <c r="U47" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S47" t="s">
+      <c r="V47" t="s">
         <v>38</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>42</v>
       </c>
-      <c r="U47">
+      <c r="X47">
         <v>18.7</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
         <v>1291</v>
       </c>
       <c r="AB47">
@@ -5477,73 +5900,82 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
         <v>32</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <v>1002</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>77.81</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>34</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>60.01</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>9</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>35</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>7</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>781033223</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>36</v>
       </c>
-      <c r="N48" t="s">
-        <v>37</v>
-      </c>
-      <c r="O48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="Q48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="1">
         <v>43811</v>
       </c>
-      <c r="R48" s="2">
+      <c r="U48" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S48" t="s">
+      <c r="V48" t="s">
         <v>38</v>
       </c>
-      <c r="T48">
+      <c r="W48">
         <v>43</v>
       </c>
-      <c r="U48">
+      <c r="X48">
         <v>8.65</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>1121</v>
       </c>
       <c r="AB48">
@@ -5572,73 +6004,82 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <v>1002</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>77.81</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>33</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>34</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>60.01</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>9</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>35</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>7</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>781033223</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
         <v>36</v>
       </c>
-      <c r="N49" t="s">
-        <v>37</v>
-      </c>
-      <c r="O49" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="1">
+      <c r="Q49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="1">
         <v>43811</v>
       </c>
-      <c r="R49" s="2">
+      <c r="U49" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S49" t="s">
+      <c r="V49" t="s">
         <v>38</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>44</v>
       </c>
-      <c r="U49">
+      <c r="X49">
         <v>13.67</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
         <v>1607</v>
       </c>
       <c r="AB49">
@@ -5667,73 +6108,82 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
         <v>32</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <v>1002</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>77.81</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>33</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>34</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>60.01</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>35</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
         <v>7</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>781033223</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>36</v>
       </c>
-      <c r="N50" t="s">
-        <v>37</v>
-      </c>
-      <c r="O50" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" s="1">
+      <c r="Q50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" s="1">
         <v>43811</v>
       </c>
-      <c r="R50" s="2">
+      <c r="U50" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S50" t="s">
+      <c r="V50" t="s">
         <v>38</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>45</v>
       </c>
-      <c r="U50">
+      <c r="X50">
         <v>11.16</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
         <v>2362</v>
       </c>
       <c r="AB50">
@@ -5762,73 +6212,82 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>32</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <v>1002</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>77.81</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>33</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>60.01</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>9</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>35</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>7</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>781033223</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>36</v>
       </c>
-      <c r="N51" t="s">
-        <v>37</v>
-      </c>
-      <c r="O51" t="s">
-        <v>37</v>
-      </c>
-      <c r="P51" s="1">
+      <c r="Q51" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="1">
         <v>43811</v>
       </c>
-      <c r="R51" s="2">
+      <c r="U51" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S51" t="s">
+      <c r="V51" t="s">
         <v>38</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>46</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>19.95</v>
       </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51">
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
         <v>2245</v>
       </c>
       <c r="AB51">
@@ -5857,73 +6316,82 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>32</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <v>1002</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>77.81</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>33</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>34</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>60.01</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>9</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>35</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
         <v>7</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>781033223</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>36</v>
       </c>
-      <c r="N52" t="s">
-        <v>37</v>
-      </c>
-      <c r="O52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P52" s="1">
+      <c r="Q52" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="1">
         <v>43811</v>
       </c>
-      <c r="R52" s="2">
+      <c r="U52" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S52" t="s">
+      <c r="V52" t="s">
         <v>38</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>47</v>
       </c>
-      <c r="U52">
+      <c r="X52">
         <v>16.190000000000001</v>
       </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52">
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
         <v>1504</v>
       </c>
       <c r="AB52">
@@ -5952,73 +6420,82 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="B53">
+      <c r="E53">
         <v>1002</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>77.81</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>33</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>34</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>60.01</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="L53" t="s">
         <v>35</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>7</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>781033223</v>
       </c>
-      <c r="M53" t="s">
+      <c r="P53" t="s">
         <v>36</v>
       </c>
-      <c r="N53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O53" t="s">
-        <v>37</v>
-      </c>
-      <c r="P53" s="1">
+      <c r="Q53" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="1">
         <v>43811</v>
       </c>
-      <c r="R53" s="2">
+      <c r="U53" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S53" t="s">
+      <c r="V53" t="s">
         <v>38</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>48</v>
       </c>
-      <c r="U53">
+      <c r="X53">
         <v>23.72</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
         <v>1407</v>
       </c>
       <c r="AB53">
@@ -6047,73 +6524,82 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
         <v>32</v>
       </c>
-      <c r="B54">
+      <c r="E54">
         <v>1002</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>77.81</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>33</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>34</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>60.01</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>35</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>7</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>781033223</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>36</v>
       </c>
-      <c r="N54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="Q54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="1">
         <v>43811</v>
       </c>
-      <c r="R54" s="2">
+      <c r="U54" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S54" t="s">
+      <c r="V54" t="s">
         <v>38</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>49</v>
       </c>
-      <c r="U54">
+      <c r="X54">
         <v>27.49</v>
       </c>
-      <c r="V54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
         <v>2505</v>
       </c>
       <c r="AB54">
@@ -6142,73 +6628,82 @@
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
         <v>32</v>
       </c>
-      <c r="B55">
+      <c r="E55">
         <v>1002</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>77.81</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>33</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>34</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>60.01</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>9</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>35</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
         <v>7</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>781033223</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>36</v>
       </c>
-      <c r="N55" t="s">
-        <v>37</v>
-      </c>
-      <c r="O55" t="s">
-        <v>37</v>
-      </c>
-      <c r="P55" s="1">
+      <c r="Q55" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="1">
         <v>43811</v>
       </c>
-      <c r="R55" s="2">
+      <c r="U55" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S55" t="s">
+      <c r="V55" t="s">
         <v>38</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>50</v>
       </c>
-      <c r="U55">
+      <c r="X55">
         <v>13.67</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
         <v>1568</v>
       </c>
       <c r="AB55">
@@ -6237,73 +6732,82 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
         <v>32</v>
       </c>
-      <c r="B56">
+      <c r="E56">
         <v>1002</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>77.81</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>33</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>34</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>60.01</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>9</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>35</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
         <v>7</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>781033223</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>36</v>
       </c>
-      <c r="N56" t="s">
-        <v>37</v>
-      </c>
-      <c r="O56" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="Q56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" s="1">
         <v>43811</v>
       </c>
-      <c r="R56" s="2">
+      <c r="U56" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S56" t="s">
+      <c r="V56" t="s">
         <v>38</v>
       </c>
-      <c r="T56">
+      <c r="W56">
         <v>51</v>
       </c>
-      <c r="U56">
+      <c r="X56">
         <v>11.16</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="X56">
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
         <v>2423</v>
       </c>
       <c r="AB56">
@@ -6332,73 +6836,82 @@
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
         <v>32</v>
       </c>
-      <c r="B57">
+      <c r="E57">
         <v>1002</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>77.81</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>33</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>34</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>60.01</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>9</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>35</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
         <v>7</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>781033223</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>36</v>
       </c>
-      <c r="N57" t="s">
-        <v>37</v>
-      </c>
-      <c r="O57" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="Q57" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="1">
         <v>43811</v>
       </c>
-      <c r="R57" s="2">
+      <c r="U57" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S57" t="s">
+      <c r="V57" t="s">
         <v>38</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>52</v>
       </c>
-      <c r="U57">
+      <c r="X57">
         <v>18.07</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
         <v>1649</v>
       </c>
       <c r="AB57">
@@ -6427,73 +6940,82 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
         <v>32</v>
       </c>
-      <c r="B58">
+      <c r="E58">
         <v>1002</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>77.81</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>33</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>34</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>60.01</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>9</v>
       </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
         <v>35</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
         <v>7</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>781033223</v>
       </c>
-      <c r="M58" t="s">
+      <c r="P58" t="s">
         <v>36</v>
       </c>
-      <c r="N58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O58" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="1">
+      <c r="Q58" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="1">
         <v>43811</v>
       </c>
-      <c r="R58" s="2">
+      <c r="U58" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S58" t="s">
+      <c r="V58" t="s">
         <v>38</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>53</v>
       </c>
-      <c r="U58">
+      <c r="X58">
         <v>24.35</v>
       </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58">
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>1211</v>
       </c>
       <c r="AB58">
@@ -6522,73 +7044,82 @@
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
         <v>32</v>
       </c>
-      <c r="B59">
+      <c r="E59">
         <v>1002</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>77.81</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>33</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>34</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>60.01</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>9</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>35</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
         <v>7</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>781033223</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>36</v>
       </c>
-      <c r="N59" t="s">
-        <v>37</v>
-      </c>
-      <c r="O59" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="1">
+      <c r="Q59" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="1">
         <v>43811</v>
       </c>
-      <c r="R59" s="2">
+      <c r="U59" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S59" t="s">
+      <c r="V59" t="s">
         <v>38</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>54</v>
       </c>
-      <c r="U59">
+      <c r="X59">
         <v>26.86</v>
       </c>
-      <c r="V59">
-        <v>1</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59">
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
         <v>2373</v>
       </c>
       <c r="AB59">
@@ -6617,73 +7148,82 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
         <v>32</v>
       </c>
-      <c r="B60">
+      <c r="E60">
         <v>1002</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>77.81</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>33</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>34</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>60.01</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>9</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
         <v>7</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>781033223</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" t="s">
-        <v>37</v>
-      </c>
-      <c r="O60" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" s="1">
+      <c r="Q60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1">
         <v>43811</v>
       </c>
-      <c r="R60" s="2">
+      <c r="U60" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S60" t="s">
+      <c r="V60" t="s">
         <v>38</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>55</v>
       </c>
-      <c r="U60">
+      <c r="X60">
         <v>29.37</v>
       </c>
-      <c r="V60">
-        <v>1</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
         <v>1259</v>
       </c>
       <c r="AB60">
@@ -6712,73 +7252,82 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="E61">
         <v>1002</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>77.81</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>33</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>34</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>60.01</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>9</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>35</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>7</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>781033223</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>36</v>
       </c>
-      <c r="N61" t="s">
-        <v>37</v>
-      </c>
-      <c r="O61" t="s">
-        <v>37</v>
-      </c>
-      <c r="P61" s="1">
+      <c r="Q61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61" s="1">
         <v>43811</v>
       </c>
-      <c r="R61" s="2">
+      <c r="U61" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S61" t="s">
+      <c r="V61" t="s">
         <v>38</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>56</v>
       </c>
-      <c r="U61">
+      <c r="X61">
         <v>28.12</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
         <v>2</v>
       </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
         <v>5754</v>
       </c>
       <c r="AB61">
@@ -6807,73 +7356,82 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
         <v>32</v>
       </c>
-      <c r="B62">
+      <c r="E62">
         <v>1002</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>77.81</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>33</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>34</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>60.01</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>9</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>35</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>7</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>781033223</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>36</v>
       </c>
-      <c r="N62" t="s">
-        <v>37</v>
-      </c>
-      <c r="O62" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" s="1">
+      <c r="Q62" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" t="s">
+        <v>37</v>
+      </c>
+      <c r="S62" s="1">
         <v>43811</v>
       </c>
-      <c r="R62" s="2">
+      <c r="U62" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S62" t="s">
+      <c r="V62" t="s">
         <v>38</v>
       </c>
-      <c r="T62">
+      <c r="W62">
         <v>57</v>
       </c>
-      <c r="U62">
+      <c r="X62">
         <v>25.6</v>
       </c>
-      <c r="V62">
-        <v>1</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62">
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
         <v>1222</v>
       </c>
       <c r="AB62">
@@ -6902,73 +7460,82 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
         <v>32</v>
       </c>
-      <c r="B63">
+      <c r="E63">
         <v>1002</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>77.81</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>33</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>34</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>60.01</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
         <v>35</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
         <v>7</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>781033223</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>36</v>
       </c>
-      <c r="N63" t="s">
-        <v>37</v>
-      </c>
-      <c r="O63" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" s="1">
+      <c r="Q63" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" t="s">
+        <v>37</v>
+      </c>
+      <c r="S63" s="1">
         <v>43811</v>
       </c>
-      <c r="R63" s="2">
+      <c r="U63" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S63" t="s">
+      <c r="V63" t="s">
         <v>38</v>
       </c>
-      <c r="T63">
+      <c r="W63">
         <v>58</v>
       </c>
-      <c r="U63">
+      <c r="X63">
         <v>25.6</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
         <v>1368</v>
       </c>
       <c r="AB63">
@@ -6997,73 +7564,82 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
         <v>32</v>
       </c>
-      <c r="B64">
+      <c r="E64">
         <v>1002</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>77.81</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>33</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>34</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>60.01</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>9</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>35</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
         <v>7</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>781033223</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>36</v>
       </c>
-      <c r="N64" t="s">
-        <v>37</v>
-      </c>
-      <c r="O64" t="s">
-        <v>37</v>
-      </c>
-      <c r="P64" s="1">
+      <c r="Q64" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S64" s="1">
         <v>43811</v>
       </c>
-      <c r="R64" s="2">
+      <c r="U64" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S64" t="s">
+      <c r="V64" t="s">
         <v>38</v>
       </c>
-      <c r="T64">
+      <c r="W64">
         <v>59</v>
       </c>
-      <c r="U64">
+      <c r="X64">
         <v>28.12</v>
       </c>
-      <c r="V64">
-        <v>1</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
         <v>1398</v>
       </c>
       <c r="AB64">
@@ -7092,73 +7668,82 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
         <v>32</v>
       </c>
-      <c r="B65">
+      <c r="E65">
         <v>1002</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
         <v>77.81</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>33</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>34</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>60.01</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>9</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>35</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
         <v>7</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>781033223</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>36</v>
       </c>
-      <c r="N65" t="s">
-        <v>37</v>
-      </c>
-      <c r="O65" t="s">
-        <v>37</v>
-      </c>
-      <c r="P65" s="1">
+      <c r="Q65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="1">
         <v>43811</v>
       </c>
-      <c r="R65" s="2">
+      <c r="U65" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S65" t="s">
+      <c r="V65" t="s">
         <v>38</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>60</v>
       </c>
-      <c r="U65">
+      <c r="X65">
         <v>19.329999999999998</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="X65">
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65">
         <v>1391</v>
       </c>
       <c r="AB65">
@@ -7187,73 +7772,82 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
         <v>32</v>
       </c>
-      <c r="B66">
+      <c r="E66">
         <v>1002</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>77.81</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>33</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>34</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>60.01</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>9</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>35</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <v>7</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>781033223</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>36</v>
       </c>
-      <c r="N66" t="s">
-        <v>37</v>
-      </c>
-      <c r="O66" t="s">
-        <v>37</v>
-      </c>
-      <c r="P66" s="1">
+      <c r="Q66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" s="1">
         <v>43811</v>
       </c>
-      <c r="R66" s="2">
+      <c r="U66" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S66" t="s">
+      <c r="V66" t="s">
         <v>38</v>
       </c>
-      <c r="T66">
+      <c r="W66">
         <v>61</v>
       </c>
-      <c r="U66">
+      <c r="X66">
         <v>10.53</v>
       </c>
-      <c r="V66">
-        <v>1</v>
-      </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66">
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
         <v>2306</v>
       </c>
       <c r="AB66">
@@ -7282,73 +7876,82 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
+      <c r="E67">
         <v>1002</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>77.81</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>33</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>34</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>60.01</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>9</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>35</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
         <v>7</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>781033223</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
         <v>36</v>
       </c>
-      <c r="N67" t="s">
-        <v>37</v>
-      </c>
-      <c r="O67" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="1">
+      <c r="Q67" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="1">
         <v>43811</v>
       </c>
-      <c r="R67" s="2">
+      <c r="U67" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S67" t="s">
+      <c r="V67" t="s">
         <v>38</v>
       </c>
-      <c r="T67">
+      <c r="W67">
         <v>62</v>
       </c>
-      <c r="U67">
+      <c r="X67">
         <v>13.05</v>
       </c>
-      <c r="V67">
-        <v>1</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67">
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
         <v>2096</v>
       </c>
       <c r="AB67">
@@ -7377,73 +7980,82 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="B68">
+      <c r="E68">
         <v>1002</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>77.81</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>33</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>34</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>60.01</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>35</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
         <v>7</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>781033223</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>36</v>
       </c>
-      <c r="N68" t="s">
-        <v>37</v>
-      </c>
-      <c r="O68" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="1">
+      <c r="Q68" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" t="s">
+        <v>37</v>
+      </c>
+      <c r="S68" s="1">
         <v>43811</v>
       </c>
-      <c r="R68" s="2">
+      <c r="U68" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S68" t="s">
+      <c r="V68" t="s">
         <v>38</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>63</v>
       </c>
-      <c r="U68">
+      <c r="X68">
         <v>29.37</v>
       </c>
-      <c r="V68">
-        <v>1</v>
-      </c>
-      <c r="W68">
-        <v>1</v>
-      </c>
-      <c r="X68">
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
         <v>1778</v>
       </c>
       <c r="AB68">
@@ -7472,73 +8084,82 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
         <v>32</v>
       </c>
-      <c r="B69">
+      <c r="E69">
         <v>1002</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>77.81</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>33</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>34</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>60.01</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>9</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>35</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
         <v>7</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>781033223</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>36</v>
       </c>
-      <c r="N69" t="s">
-        <v>37</v>
-      </c>
-      <c r="O69" t="s">
-        <v>37</v>
-      </c>
-      <c r="P69" s="1">
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" s="1">
         <v>43811</v>
       </c>
-      <c r="R69" s="2">
+      <c r="U69" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S69" t="s">
+      <c r="V69" t="s">
         <v>38</v>
       </c>
-      <c r="T69">
+      <c r="W69">
         <v>64</v>
       </c>
-      <c r="U69">
+      <c r="X69">
         <v>9.2799999999999994</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-      <c r="X69">
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
         <v>1458</v>
       </c>
       <c r="AB69">
@@ -7567,73 +8188,82 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
         <v>32</v>
       </c>
-      <c r="B70">
+      <c r="E70">
         <v>1002</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>77.81</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>33</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>34</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>60.01</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>9</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>35</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
         <v>7</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>781033223</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>36</v>
       </c>
-      <c r="N70" t="s">
-        <v>37</v>
-      </c>
-      <c r="O70" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" s="1">
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="1">
         <v>43811</v>
       </c>
-      <c r="R70" s="2">
+      <c r="U70" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S70" t="s">
+      <c r="V70" t="s">
         <v>38</v>
       </c>
-      <c r="T70">
+      <c r="W70">
         <v>65</v>
       </c>
-      <c r="U70">
+      <c r="X70">
         <v>13.05</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
         <v>988</v>
       </c>
       <c r="AB70">
@@ -7662,73 +8292,82 @@
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
         <v>32</v>
       </c>
-      <c r="B71">
+      <c r="E71">
         <v>1002</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>77.81</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>33</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>34</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>60.01</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>9</v>
       </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>35</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <v>7</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>781033223</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>36</v>
       </c>
-      <c r="N71" t="s">
-        <v>37</v>
-      </c>
-      <c r="O71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="1">
+      <c r="Q71" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" s="1">
         <v>43811</v>
       </c>
-      <c r="R71" s="2">
+      <c r="U71" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S71" t="s">
+      <c r="V71" t="s">
         <v>38</v>
       </c>
-      <c r="T71">
+      <c r="W71">
         <v>66</v>
       </c>
-      <c r="U71">
+      <c r="X71">
         <v>10.53</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <v>1060</v>
       </c>
       <c r="AB71">
@@ -7757,73 +8396,82 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
         <v>32</v>
       </c>
-      <c r="B72">
+      <c r="E72">
         <v>1002</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>77.81</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>33</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>34</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>60.01</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>9</v>
       </c>
-      <c r="I72" t="s">
+      <c r="L72" t="s">
         <v>35</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
         <v>7</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>781033223</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>36</v>
       </c>
-      <c r="N72" t="s">
-        <v>37</v>
-      </c>
-      <c r="O72" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="1">
+      <c r="Q72" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="1">
         <v>43811</v>
       </c>
-      <c r="R72" s="2">
+      <c r="U72" s="2">
         <v>0.71615740740740741</v>
       </c>
-      <c r="S72" t="s">
+      <c r="V72" t="s">
         <v>38</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>67</v>
       </c>
-      <c r="U72">
+      <c r="X72">
         <v>21.84</v>
       </c>
-      <c r="V72">
-        <v>1</v>
-      </c>
-      <c r="W72">
-        <v>1</v>
-      </c>
-      <c r="X72">
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
         <v>1591</v>
       </c>
       <c r="AB72">
